--- a/tien_dien.xlsx
+++ b/tien_dien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11730"/>
+    <workbookView windowWidth="29400" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="19">
   <si>
     <t>THÔNG TIN TIỀN ĐIỆN HÀNG THÁNG</t>
   </si>
@@ -91,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -616,16 +616,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -783,6 +783,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,19 +1105,19 @@
   <sheetPr/>
   <dimension ref="A1:XFD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K14" sqref="J24 K14"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
-    <col min="4" max="5" width="23.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="14.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="14.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.859375" customWidth="1"/>
+    <col min="7" max="7" width="14.2890625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="13.4296875" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1139,7 +1140,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="21" spans="1:15">
+    <row r="2" ht="23.2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1160,7 +1161,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" ht="18.75" spans="1:10">
+    <row r="3" ht="20.4" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="21.75" spans="1:9">
+    <row r="4" ht="23.2" spans="1:9">
       <c r="A4" s="6">
         <v>2023</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="21.75" spans="1:9">
+    <row r="5" ht="23.2" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>11</v>
@@ -1252,7 +1253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="21.75" spans="1:9">
+    <row r="6" ht="23.2" spans="1:9">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>12</v>
@@ -1289,7 +1290,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" ht="21.75" spans="1:9">
+    <row r="9" ht="23.2" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>1</v>
@@ -1318,7 +1319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="21.75" spans="1:9">
+    <row r="10" ht="23.2" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>2</v>
@@ -1347,7 +1348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="21.75" spans="1:9">
+    <row r="11" ht="23.2" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>3</v>
@@ -1376,7 +1377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="21.75" spans="1:9">
+    <row r="12" ht="23.2" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>4</v>
@@ -1405,7 +1406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="21.75" spans="1:9">
+    <row r="13" ht="23.2" spans="1:9">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>5</v>
@@ -1434,7 +1435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="21.75" spans="1:9">
+    <row r="14" ht="23.2" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>6</v>
@@ -1463,7 +1464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="21.75" spans="1:9">
+    <row r="15" ht="23.2" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>7</v>
@@ -1492,7 +1493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="21.75" spans="1:9">
+    <row r="16" ht="23.2" spans="1:9">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>8</v>
@@ -1521,7 +1522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="21.75" spans="1:9">
+    <row r="17" ht="23.2" spans="1:9">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>9</v>
@@ -1550,7 +1551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="21.75" spans="1:9">
+    <row r="18" ht="23.2" spans="1:9">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>10</v>
@@ -1579,7 +1580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="21.75" spans="2:9">
+    <row r="19" ht="23.2" spans="2:9">
       <c r="B19" s="7">
         <v>11</v>
       </c>
@@ -1603,9 +1604,11 @@
         <f t="shared" si="2"/>
         <v>836000</v>
       </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" customFormat="1" ht="21.75" spans="2:9">
+      <c r="I19" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="23.2" spans="2:9">
       <c r="B20" s="7">
         <v>12</v>
       </c>
@@ -1629,14 +1632,16 @@
         <f t="shared" si="2"/>
         <v>547200</v>
       </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="21" spans="1:1">
+      <c r="I20" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="23.2" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="18.75" spans="1:10">
+    <row r="22" ht="20.4" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="21.75" spans="1:9">
+    <row r="23" customFormat="1" ht="23.2" spans="1:9">
       <c r="A23" s="6">
         <v>2025</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>2610</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" ref="E23:E25" si="3">D23-C23</f>
+        <f t="shared" ref="E23:E26" si="3">D23-C23</f>
         <v>159</v>
       </c>
       <c r="F23" s="7">
@@ -1690,14 +1695,14 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H25" si="4">((D23-C23)*F23)+G23</f>
+        <f t="shared" ref="H23:H26" si="4">((D23-C23)*F23)+G23</f>
         <v>604200</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="21.75" spans="1:9">
+    <row r="24" customFormat="1" ht="23.2" spans="1:9">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>2</v>
@@ -1720,9 +1725,11 @@
         <f t="shared" si="4"/>
         <v>456000</v>
       </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" customFormat="1" ht="21.75" spans="1:9">
+      <c r="I24" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="23.2" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>3</v>
@@ -1734,7 +1741,7 @@
         <v>2888</v>
       </c>
       <c r="E25" s="7">
-        <f>D25-C25</f>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
       <c r="F25" s="7">
@@ -1742,15 +1749,38 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7">
-        <f>((D25-C25)*F25)+G25</f>
+        <f t="shared" si="4"/>
         <v>600400</v>
       </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:1">
+      <c r="I25" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="20.4" spans="1:8">
       <c r="A26" s="6"/>
-    </row>
-    <row r="33" ht="21" spans="1:15">
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2888</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3085</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="F26" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7">
+        <f t="shared" si="4"/>
+        <v>748600</v>
+      </c>
+    </row>
+    <row r="33" ht="23.2" spans="1:15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1767,7 +1797,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" ht="21" spans="1:15">
+    <row r="34" ht="23.2" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1818,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" ht="18.75" spans="1:10">
+    <row r="35" ht="20.4" spans="1:10">
       <c r="A35" s="6" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="21.75" spans="1:9">
+    <row r="36" ht="23.2" spans="1:9">
       <c r="A36" s="6">
         <v>2023</v>
       </c>
@@ -1851,7 +1881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" ht="21.75" spans="1:9">
+    <row r="37" ht="23.2" spans="1:9">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>11</v>
@@ -1891,7 +1921,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="41" ht="21.75" spans="1:9">
+    <row r="41" ht="23.2" spans="1:9">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>4</v>
@@ -1920,7 +1950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" ht="21.75" spans="1:9">
+    <row r="42" ht="23.2" spans="1:9">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>5</v>
@@ -1949,7 +1979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" ht="21.75" spans="1:9">
+    <row r="43" ht="23.2" spans="1:9">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>6</v>
@@ -1978,7 +2008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" ht="21.75" spans="2:9">
+    <row r="44" ht="23.2" spans="2:9">
       <c r="B44" s="7">
         <v>7</v>
       </c>
@@ -2006,7 +2036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" ht="21.75" spans="2:9">
+    <row r="45" ht="23.2" spans="2:9">
       <c r="B45" s="7">
         <v>8</v>
       </c>
@@ -2034,7 +2064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" ht="21.75" spans="2:9">
+    <row r="46" ht="23.2" spans="2:9">
       <c r="B46" s="7">
         <v>9</v>
       </c>
@@ -2062,7 +2092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="21.75" spans="2:9">
+    <row r="47" customFormat="1" ht="23.2" spans="2:9">
       <c r="B47" s="7">
         <v>10</v>
       </c>
@@ -2090,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" ht="21.75" spans="2:9">
+    <row r="48" ht="23.2" spans="2:9">
       <c r="B48" s="7">
         <v>11</v>
       </c>
@@ -2118,7 +2148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="21.75" spans="2:9">
+    <row r="49" customFormat="1" ht="23.2" spans="2:9">
       <c r="B49" s="7">
         <v>12</v>
       </c>
@@ -2146,12 +2176,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="21" spans="5:5">
+    <row r="50" s="2" customFormat="1" ht="23.2" spans="5:5">
       <c r="E50" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" ht="18.75" spans="1:10">
+    <row r="51" ht="20.4" spans="1:10">
       <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
@@ -2183,7 +2213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="21.75" spans="1:9">
+    <row r="52" customFormat="1" ht="23.2" spans="1:9">
       <c r="A52" s="6">
         <v>2025</v>
       </c>
@@ -2197,7 +2227,7 @@
         <v>1912</v>
       </c>
       <c r="E52" s="7">
-        <f>D52-C52</f>
+        <f t="shared" ref="E52:E55" si="7">D52-C52</f>
         <v>145</v>
       </c>
       <c r="F52" s="7">
@@ -2205,14 +2235,14 @@
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7">
-        <f>((D52-C52)*F52)+G52</f>
+        <f t="shared" ref="H52:H55" si="8">((D52-C52)*F52)+G52</f>
         <v>551000</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="21.75" spans="1:9">
+    <row r="53" customFormat="1" ht="23.2" spans="1:9">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>2</v>
@@ -2224,7 +2254,7 @@
         <v>1997</v>
       </c>
       <c r="E53" s="7">
-        <f>D53-C53</f>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="F53" s="7">
@@ -2232,26 +2262,66 @@
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7">
-        <f>((D53-C53)*F53)+G53</f>
+        <f t="shared" si="8"/>
         <v>323000</v>
       </c>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" customFormat="1" ht="21.75" spans="1:9">
+      <c r="I53" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="23.2" spans="1:9">
       <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="B54" s="7">
+        <v>3</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1997</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2160</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="7"/>
+        <v>163</v>
+      </c>
+      <c r="F54" s="7">
+        <v>3800</v>
+      </c>
       <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" customFormat="1" spans="1:1">
+      <c r="H54" s="7">
+        <f t="shared" si="8"/>
+        <v>619400</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="20.4" spans="1:9">
       <c r="A55" s="6"/>
-    </row>
-    <row r="61" ht="21" spans="1:15">
+      <c r="B55" s="7">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7">
+        <v>2160</v>
+      </c>
+      <c r="D55" s="7">
+        <v>2331</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="F55" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7">
+        <f t="shared" si="8"/>
+        <v>649800</v>
+      </c>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="61" ht="23.2" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>17</v>
       </c>
@@ -2272,7 +2342,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" ht="18.75" spans="1:10">
+    <row r="62" ht="20.4" spans="1:10">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
@@ -2304,7 +2374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="21.75" spans="1:9">
+    <row r="63" ht="23.2" spans="1:9">
       <c r="A63" s="6">
         <v>2023</v>
       </c>
@@ -2318,7 +2388,7 @@
         <v>464</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" ref="E63:E78" si="7">D63-C63</f>
+        <f t="shared" ref="E63:E78" si="9">D63-C63</f>
         <v>93</v>
       </c>
       <c r="F63" s="7">
@@ -2328,14 +2398,14 @@
         <v>60000</v>
       </c>
       <c r="H63" s="7">
-        <f t="shared" ref="H63:H65" si="8">((D63-C63)*F63)+G63</f>
+        <f t="shared" ref="H63:H65" si="10">((D63-C63)*F63)+G63</f>
         <v>413400</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" ht="21.75" spans="1:9">
+    <row r="64" ht="23.2" spans="1:9">
       <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>11</v>
@@ -2347,7 +2417,7 @@
         <v>627</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
       <c r="F64" s="7">
@@ -2357,14 +2427,14 @@
         <v>60000</v>
       </c>
       <c r="H64" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>679400</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" ht="21.75" spans="1:9">
+    <row r="65" ht="23.2" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="7">
         <v>12</v>
@@ -2376,7 +2446,7 @@
         <v>774</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="F65" s="7">
@@ -2386,7 +2456,7 @@
         <v>60000</v>
       </c>
       <c r="H65" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>618600</v>
       </c>
       <c r="I65" s="9" t="s">
@@ -2396,7 +2466,7 @@
     <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" ht="21.75" spans="1:9">
+    <row r="67" ht="23.2" spans="1:9">
       <c r="A67" s="6">
         <v>2024</v>
       </c>
@@ -2410,7 +2480,7 @@
         <v>927</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>153</v>
       </c>
       <c r="F67" s="7">
@@ -2420,14 +2490,14 @@
         <v>60000</v>
       </c>
       <c r="H67" s="7">
-        <f t="shared" ref="H67:H78" si="9">((D67-C67)*F67)+G67</f>
+        <f t="shared" ref="H67:H78" si="11">((D67-C67)*F67)+G67</f>
         <v>641400</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" ht="21.75" spans="1:9">
+    <row r="68" ht="23.2" spans="1:9">
       <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>2</v>
@@ -2439,7 +2509,7 @@
         <v>1110</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>183</v>
       </c>
       <c r="F68" s="7">
@@ -2449,14 +2519,14 @@
         <v>60000</v>
       </c>
       <c r="H68" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>755400</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" ht="21.75" spans="1:9">
+    <row r="69" ht="23.2" spans="1:9">
       <c r="A69" s="6"/>
       <c r="B69" s="7">
         <v>3</v>
@@ -2468,7 +2538,7 @@
         <v>1267</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>157</v>
       </c>
       <c r="F69" s="7">
@@ -2478,14 +2548,14 @@
         <v>0</v>
       </c>
       <c r="H69" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>596600</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" ht="21.75" spans="1:9">
+    <row r="70" ht="23.2" spans="1:9">
       <c r="A70" s="6"/>
       <c r="B70" s="7">
         <v>4</v>
@@ -2497,7 +2567,7 @@
         <v>1436</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>169</v>
       </c>
       <c r="F70" s="7">
@@ -2507,14 +2577,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>642200</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" ht="21.75" spans="2:9">
+    <row r="71" ht="23.2" spans="2:9">
       <c r="B71" s="7">
         <v>5</v>
       </c>
@@ -2525,7 +2595,7 @@
         <v>1623</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
       <c r="F71" s="7">
@@ -2535,14 +2605,14 @@
         <v>0</v>
       </c>
       <c r="H71" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>710600</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" ht="21.75" spans="2:9">
+    <row r="72" ht="23.2" spans="2:9">
       <c r="B72" s="7">
         <v>6</v>
       </c>
@@ -2553,7 +2623,7 @@
         <v>1763</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="F72" s="7">
@@ -2563,14 +2633,14 @@
         <v>0</v>
       </c>
       <c r="H72" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>532000</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" ht="21.75" spans="2:9">
+    <row r="73" ht="23.2" spans="2:9">
       <c r="B73" s="7">
         <v>7</v>
       </c>
@@ -2581,7 +2651,7 @@
         <v>1877</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="F73" s="7">
@@ -2591,14 +2661,14 @@
         <v>0</v>
       </c>
       <c r="H73" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>433200</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" ht="21.75" spans="2:9">
+    <row r="74" ht="23.2" spans="2:9">
       <c r="B74" s="7">
         <v>8</v>
       </c>
@@ -2609,7 +2679,7 @@
         <v>2000</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="F74" s="7">
@@ -2619,14 +2689,14 @@
         <v>0</v>
       </c>
       <c r="H74" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>467400</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" ht="21.75" spans="2:9">
+    <row r="75" ht="23.2" spans="2:9">
       <c r="B75" s="7">
         <v>9</v>
       </c>
@@ -2637,7 +2707,7 @@
         <v>2104</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
       <c r="F75" s="7">
@@ -2647,14 +2717,14 @@
         <v>0</v>
       </c>
       <c r="H75" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>395200</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" customFormat="1" ht="21.75" spans="2:9">
+    <row r="76" customFormat="1" ht="23.2" spans="2:9">
       <c r="B76" s="7">
         <v>10</v>
       </c>
@@ -2665,7 +2735,7 @@
         <v>2230</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>126</v>
       </c>
       <c r="F76" s="7">
@@ -2675,14 +2745,14 @@
         <v>0</v>
       </c>
       <c r="H76" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>478800</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" ht="21.75" spans="2:9">
+    <row r="77" ht="23.2" spans="2:9">
       <c r="B77" s="7">
         <v>11</v>
       </c>
@@ -2693,7 +2763,7 @@
         <v>2339</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>109</v>
       </c>
       <c r="F77" s="7">
@@ -2703,14 +2773,14 @@
         <v>0</v>
       </c>
       <c r="H77" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>414200</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" customFormat="1" ht="21.75" spans="2:9">
+    <row r="78" customFormat="1" ht="23.2" spans="2:9">
       <c r="B78" s="7">
         <v>12</v>
       </c>
@@ -2721,7 +2791,7 @@
         <v>2440</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="F78" s="7">
@@ -2731,17 +2801,17 @@
         <v>0</v>
       </c>
       <c r="H78" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>383800</v>
       </c>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" s="2" customFormat="1" ht="21" spans="5:5">
+    <row r="79" s="2" customFormat="1" ht="23.2" spans="5:5">
       <c r="E79" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" ht="18.75" spans="1:10">
+    <row r="80" ht="20.4" spans="1:10">
       <c r="A80" s="6" t="s">
         <v>3</v>
       </c>
@@ -2773,7 +2843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="21.75" spans="1:9">
+    <row r="81" customFormat="1" ht="23.2" spans="1:9">
       <c r="A81" s="6">
         <v>2025</v>
       </c>
@@ -2787,7 +2857,7 @@
         <v>2550</v>
       </c>
       <c r="E81" s="7">
-        <f>D81-C81</f>
+        <f t="shared" ref="E81:E84" si="12">D81-C81</f>
         <v>110</v>
       </c>
       <c r="F81" s="7">
@@ -2795,14 +2865,14 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7">
-        <f>((D81-C81)*F81)+G81</f>
+        <f t="shared" ref="H81:H84" si="13">((D81-C81)*F81)+G81</f>
         <v>418000</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" customFormat="1" ht="21.75" spans="1:9">
+    <row r="82" customFormat="1" ht="23.2" spans="1:9">
       <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>2</v>
@@ -2814,7 +2884,7 @@
         <v>2647</v>
       </c>
       <c r="E82" s="7">
-        <f>D82-C82</f>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="F82" s="7">
@@ -2822,25 +2892,63 @@
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7">
-        <f>((D82-C82)*F82)+G82</f>
+        <f t="shared" si="13"/>
         <v>368600</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" customFormat="1" ht="21.75" spans="1:9">
+    <row r="83" customFormat="1" ht="23.2" spans="1:9">
       <c r="A83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="B83" s="7">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7">
+        <v>2647</v>
+      </c>
+      <c r="D83" s="7">
+        <v>2747</v>
+      </c>
+      <c r="E83" s="7">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="F83" s="7">
+        <v>3800</v>
+      </c>
       <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" customFormat="1" spans="1:1">
+      <c r="H83" s="7">
+        <f t="shared" si="13"/>
+        <v>380000</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" ht="20.4" spans="1:8">
       <c r="A84" s="6"/>
+      <c r="B84" s="7">
+        <v>4</v>
+      </c>
+      <c r="C84" s="7">
+        <v>2747</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2882</v>
+      </c>
+      <c r="E84" s="7">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="F84" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7">
+        <f t="shared" si="13"/>
+        <v>513000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/tien_dien.xlsx
+++ b/tien_dien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12620"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="19">
   <si>
     <t>THÔNG TIN TIỀN ĐIỆN HÀNG THÁNG</t>
   </si>
@@ -68,7 +68,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>P</t>
+    <t>√</t>
   </si>
   <si>
     <t>A. Hoàng Anh</t>
@@ -91,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -144,7 +144,7 @@
       <b/>
       <sz val="16"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Wingdings 2"/>
+      <name val="Arial"/>
       <charset val="2"/>
     </font>
     <font>
@@ -616,16 +616,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -783,7 +783,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,21 +1102,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD84"/>
+  <dimension ref="A1:XFD85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.859375" customWidth="1"/>
-    <col min="7" max="7" width="14.2890625" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
+    <col min="4" max="5" width="23.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="14.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.4296875" customWidth="1"/>
+    <col min="9" max="9" width="13.4285714285714" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,7 +1139,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="23.2" spans="1:15">
+    <row r="2" ht="21" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +1160,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" ht="20.4" spans="1:10">
+    <row r="3" ht="18.75" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="23.2" spans="1:9">
+    <row r="4" ht="20.25" spans="1:9">
       <c r="A4" s="6">
         <v>2023</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="23.2" spans="1:9">
+    <row r="5" ht="20.25" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>11</v>
@@ -1253,7 +1252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="23.2" spans="1:9">
+    <row r="6" ht="20.25" spans="1:9">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>12</v>
@@ -1290,7 +1289,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" ht="23.2" spans="1:9">
+    <row r="9" ht="20.25" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>1</v>
@@ -1319,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="23.2" spans="1:9">
+    <row r="10" ht="20.25" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>2</v>
@@ -1348,7 +1347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="23.2" spans="1:9">
+    <row r="11" ht="20.25" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>3</v>
@@ -1377,7 +1376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="23.2" spans="1:9">
+    <row r="12" ht="20.25" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>4</v>
@@ -1406,7 +1405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="23.2" spans="1:9">
+    <row r="13" ht="20.25" spans="1:9">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>5</v>
@@ -1435,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="23.2" spans="1:9">
+    <row r="14" ht="20.25" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>6</v>
@@ -1464,7 +1463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="23.2" spans="1:9">
+    <row r="15" ht="20.25" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>7</v>
@@ -1493,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="23.2" spans="1:9">
+    <row r="16" ht="20.25" spans="1:9">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>8</v>
@@ -1522,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="23.2" spans="1:9">
+    <row r="17" ht="20.25" spans="1:9">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>9</v>
@@ -1551,7 +1550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="23.2" spans="1:9">
+    <row r="18" ht="20.25" spans="1:9">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>10</v>
@@ -1580,7 +1579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="23.2" spans="2:9">
+    <row r="19" ht="20.25" spans="2:9">
       <c r="B19" s="7">
         <v>11</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="23.2" spans="2:9">
+    <row r="20" customFormat="1" ht="20.25" spans="2:9">
       <c r="B20" s="7">
         <v>12</v>
       </c>
@@ -1636,12 +1635,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="23.2" spans="1:1">
+    <row r="21" s="1" customFormat="1" ht="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="20.4" spans="1:10">
+    <row r="22" ht="18.75" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1673,7 +1672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="23.2" spans="1:9">
+    <row r="23" customFormat="1" ht="20.25" spans="1:9">
       <c r="A23" s="6">
         <v>2025</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>2610</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" ref="E23:E26" si="3">D23-C23</f>
+        <f t="shared" ref="E23:E27" si="3">D23-C23</f>
         <v>159</v>
       </c>
       <c r="F23" s="7">
@@ -1695,14 +1694,14 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H26" si="4">((D23-C23)*F23)+G23</f>
+        <f t="shared" ref="H23:H27" si="4">((D23-C23)*F23)+G23</f>
         <v>604200</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="23.2" spans="1:9">
+    <row r="24" customFormat="1" ht="20.25" spans="1:9">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>2</v>
@@ -1729,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="23.2" spans="1:9">
+    <row r="25" customFormat="1" ht="20.25" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>3</v>
@@ -1756,7 +1755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="20.4" spans="1:8">
+    <row r="26" customFormat="1" ht="20.25" spans="1:9">
       <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>4</v>
@@ -1779,8 +1778,37 @@
         <f t="shared" si="4"/>
         <v>748600</v>
       </c>
-    </row>
-    <row r="33" ht="23.2" spans="1:15">
+      <c r="I26" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="20.25" spans="2:9">
+      <c r="B27" s="7">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3085</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3301</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7">
+        <f t="shared" si="4"/>
+        <v>820800</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="21" spans="1:15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1797,7 +1825,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" ht="23.2" spans="1:15">
+    <row r="34" ht="21" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -1818,7 +1846,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" ht="20.4" spans="1:10">
+    <row r="35" ht="18.75" spans="1:10">
       <c r="A35" s="6" t="s">
         <v>3</v>
       </c>
@@ -1850,7 +1878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="23.2" spans="1:9">
+    <row r="36" ht="20.25" spans="1:9">
       <c r="A36" s="6">
         <v>2023</v>
       </c>
@@ -1881,7 +1909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" ht="23.2" spans="1:9">
+    <row r="37" ht="20.25" spans="1:9">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>11</v>
@@ -1921,7 +1949,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="41" ht="23.2" spans="1:9">
+    <row r="41" ht="20.25" spans="1:9">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>4</v>
@@ -1950,7 +1978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" ht="23.2" spans="1:9">
+    <row r="42" ht="20.25" spans="1:9">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>5</v>
@@ -1979,7 +2007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" ht="23.2" spans="1:9">
+    <row r="43" ht="20.25" spans="1:9">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>6</v>
@@ -2008,7 +2036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" ht="23.2" spans="2:9">
+    <row r="44" ht="20.25" spans="2:9">
       <c r="B44" s="7">
         <v>7</v>
       </c>
@@ -2036,7 +2064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" ht="23.2" spans="2:9">
+    <row r="45" ht="20.25" spans="2:9">
       <c r="B45" s="7">
         <v>8</v>
       </c>
@@ -2064,7 +2092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" ht="23.2" spans="2:9">
+    <row r="46" ht="20.25" spans="2:9">
       <c r="B46" s="7">
         <v>9</v>
       </c>
@@ -2092,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="23.2" spans="2:9">
+    <row r="47" customFormat="1" ht="20.25" spans="2:9">
       <c r="B47" s="7">
         <v>10</v>
       </c>
@@ -2120,7 +2148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" ht="23.2" spans="2:9">
+    <row r="48" ht="20.25" spans="2:9">
       <c r="B48" s="7">
         <v>11</v>
       </c>
@@ -2148,7 +2176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="23.2" spans="2:9">
+    <row r="49" customFormat="1" ht="20.25" spans="2:9">
       <c r="B49" s="7">
         <v>12</v>
       </c>
@@ -2176,12 +2204,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="23.2" spans="5:5">
+    <row r="50" s="2" customFormat="1" ht="21" spans="5:5">
       <c r="E50" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" ht="20.4" spans="1:10">
+    <row r="51" ht="18.75" spans="1:10">
       <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
@@ -2213,7 +2241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="23.2" spans="1:9">
+    <row r="52" customFormat="1" ht="20.25" spans="1:9">
       <c r="A52" s="6">
         <v>2025</v>
       </c>
@@ -2227,7 +2255,7 @@
         <v>1912</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" ref="E52:E55" si="7">D52-C52</f>
+        <f t="shared" ref="E52:E56" si="7">D52-C52</f>
         <v>145</v>
       </c>
       <c r="F52" s="7">
@@ -2235,14 +2263,14 @@
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7">
-        <f t="shared" ref="H52:H55" si="8">((D52-C52)*F52)+G52</f>
+        <f t="shared" ref="H52:H56" si="8">((D52-C52)*F52)+G52</f>
         <v>551000</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="23.2" spans="1:9">
+    <row r="53" customFormat="1" ht="20.25" spans="1:9">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>2</v>
@@ -2269,7 +2297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="23.2" spans="1:9">
+    <row r="54" customFormat="1" ht="20.25" spans="1:9">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>3</v>
@@ -2296,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="20.4" spans="1:9">
+    <row r="55" customFormat="1" ht="20.25" spans="1:9">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>4</v>
@@ -2319,9 +2347,37 @@
         <f t="shared" si="8"/>
         <v>649800</v>
       </c>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="61" ht="23.2" spans="1:15">
+      <c r="I55" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" ht="20.25" spans="2:9">
+      <c r="B56" s="7">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7">
+        <v>2331</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2546</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="F56" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7">
+        <f t="shared" si="8"/>
+        <v>817000</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" ht="21" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>17</v>
       </c>
@@ -2342,7 +2398,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" ht="20.4" spans="1:10">
+    <row r="62" ht="18.75" spans="1:10">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
@@ -2374,7 +2430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="23.2" spans="1:9">
+    <row r="63" ht="20.25" spans="1:9">
       <c r="A63" s="6">
         <v>2023</v>
       </c>
@@ -2405,7 +2461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" ht="23.2" spans="1:9">
+    <row r="64" ht="20.25" spans="1:9">
       <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>11</v>
@@ -2434,7 +2490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" ht="23.2" spans="1:9">
+    <row r="65" ht="20.25" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="7">
         <v>12</v>
@@ -2466,7 +2522,7 @@
     <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" ht="23.2" spans="1:9">
+    <row r="67" ht="20.25" spans="1:9">
       <c r="A67" s="6">
         <v>2024</v>
       </c>
@@ -2497,7 +2553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" ht="23.2" spans="1:9">
+    <row r="68" ht="20.25" spans="1:9">
       <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>2</v>
@@ -2526,7 +2582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" ht="23.2" spans="1:9">
+    <row r="69" ht="20.25" spans="1:9">
       <c r="A69" s="6"/>
       <c r="B69" s="7">
         <v>3</v>
@@ -2555,7 +2611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" ht="23.2" spans="1:9">
+    <row r="70" ht="20.25" spans="1:9">
       <c r="A70" s="6"/>
       <c r="B70" s="7">
         <v>4</v>
@@ -2584,7 +2640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" ht="23.2" spans="2:9">
+    <row r="71" ht="20.25" spans="2:9">
       <c r="B71" s="7">
         <v>5</v>
       </c>
@@ -2612,7 +2668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" ht="23.2" spans="2:9">
+    <row r="72" ht="20.25" spans="2:9">
       <c r="B72" s="7">
         <v>6</v>
       </c>
@@ -2640,7 +2696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" ht="23.2" spans="2:9">
+    <row r="73" ht="20.25" spans="2:9">
       <c r="B73" s="7">
         <v>7</v>
       </c>
@@ -2668,7 +2724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" ht="23.2" spans="2:9">
+    <row r="74" ht="20.25" spans="2:9">
       <c r="B74" s="7">
         <v>8</v>
       </c>
@@ -2696,7 +2752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" ht="23.2" spans="2:9">
+    <row r="75" ht="20.25" spans="2:9">
       <c r="B75" s="7">
         <v>9</v>
       </c>
@@ -2724,7 +2780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" customFormat="1" ht="23.2" spans="2:9">
+    <row r="76" customFormat="1" ht="20.25" spans="2:9">
       <c r="B76" s="7">
         <v>10</v>
       </c>
@@ -2752,7 +2808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" ht="23.2" spans="2:9">
+    <row r="77" ht="20.25" spans="2:9">
       <c r="B77" s="7">
         <v>11</v>
       </c>
@@ -2780,7 +2836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" customFormat="1" ht="23.2" spans="2:9">
+    <row r="78" customFormat="1" ht="20.25" spans="2:9">
       <c r="B78" s="7">
         <v>12</v>
       </c>
@@ -2804,14 +2860,16 @@
         <f t="shared" si="11"/>
         <v>383800</v>
       </c>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="23.2" spans="5:5">
+      <c r="I78" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="21" spans="5:5">
       <c r="E79" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" ht="20.4" spans="1:10">
+    <row r="80" ht="18.75" spans="1:10">
       <c r="A80" s="6" t="s">
         <v>3</v>
       </c>
@@ -2843,7 +2901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="23.2" spans="1:9">
+    <row r="81" customFormat="1" ht="20.25" spans="1:9">
       <c r="A81" s="6">
         <v>2025</v>
       </c>
@@ -2857,7 +2915,7 @@
         <v>2550</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" ref="E81:E84" si="12">D81-C81</f>
+        <f t="shared" ref="E81:E85" si="12">D81-C81</f>
         <v>110</v>
       </c>
       <c r="F81" s="7">
@@ -2865,14 +2923,14 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7">
-        <f t="shared" ref="H81:H84" si="13">((D81-C81)*F81)+G81</f>
+        <f t="shared" ref="H81:H85" si="13">((D81-C81)*F81)+G81</f>
         <v>418000</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" customFormat="1" ht="23.2" spans="1:9">
+    <row r="82" customFormat="1" ht="20.25" spans="1:9">
       <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>2</v>
@@ -2899,7 +2957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" customFormat="1" ht="23.2" spans="1:9">
+    <row r="83" customFormat="1" ht="20.25" spans="1:9">
       <c r="A83" s="6"/>
       <c r="B83" s="7">
         <v>3</v>
@@ -2926,7 +2984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" customFormat="1" ht="20.4" spans="1:8">
+    <row r="84" customFormat="1" ht="20.25" spans="1:9">
       <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>4</v>
@@ -2948,6 +3006,35 @@
       <c r="H84" s="7">
         <f t="shared" si="13"/>
         <v>513000</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" ht="20.25" spans="2:9">
+      <c r="B85" s="7">
+        <v>5</v>
+      </c>
+      <c r="C85" s="7">
+        <v>2882</v>
+      </c>
+      <c r="D85" s="7">
+        <v>3022</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="F85" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7">
+        <f t="shared" si="13"/>
+        <v>532000</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/tien_dien.xlsx
+++ b/tien_dien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="29400" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -616,16 +616,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,21 +1102,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD85"/>
+  <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
-    <col min="4" max="5" width="23.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="14.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="14.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.859375" customWidth="1"/>
+    <col min="7" max="7" width="14.2890625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="13.4296875" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1139,7 +1139,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="21" spans="1:15">
+    <row r="2" ht="23.2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" ht="18.75" spans="1:10">
+    <row r="3" ht="20.4" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="20.25" spans="1:9">
+    <row r="4" ht="23.2" spans="1:9">
       <c r="A4" s="6">
         <v>2023</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="20.25" spans="1:9">
+    <row r="5" ht="23.2" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>11</v>
@@ -1252,7 +1252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="20.25" spans="1:9">
+    <row r="6" ht="23.2" spans="1:9">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>12</v>
@@ -1289,7 +1289,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" ht="20.25" spans="1:9">
+    <row r="9" ht="23.2" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="20.25" spans="1:9">
+    <row r="10" ht="23.2" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>2</v>
@@ -1347,7 +1347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="20.25" spans="1:9">
+    <row r="11" ht="23.2" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>3</v>
@@ -1376,7 +1376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="20.25" spans="1:9">
+    <row r="12" ht="23.2" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>4</v>
@@ -1405,7 +1405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="20.25" spans="1:9">
+    <row r="13" ht="23.2" spans="1:9">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>5</v>
@@ -1434,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="20.25" spans="1:9">
+    <row r="14" ht="23.2" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>6</v>
@@ -1463,7 +1463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="20.25" spans="1:9">
+    <row r="15" ht="23.2" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>7</v>
@@ -1492,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="20.25" spans="1:9">
+    <row r="16" ht="23.2" spans="1:9">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>8</v>
@@ -1521,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="20.25" spans="1:9">
+    <row r="17" ht="23.2" spans="1:9">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>9</v>
@@ -1550,7 +1550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="20.25" spans="1:9">
+    <row r="18" ht="23.2" spans="1:9">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>10</v>
@@ -1579,7 +1579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="20.25" spans="2:9">
+    <row r="19" ht="23.2" spans="2:9">
       <c r="B19" s="7">
         <v>11</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="20.25" spans="2:9">
+    <row r="20" customFormat="1" ht="23.2" spans="2:9">
       <c r="B20" s="7">
         <v>12</v>
       </c>
@@ -1635,12 +1635,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="21" spans="1:1">
+    <row r="21" s="1" customFormat="1" ht="23.2" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="18.75" spans="1:10">
+    <row r="22" ht="20.4" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="20.25" spans="1:9">
+    <row r="23" customFormat="1" ht="23.2" spans="1:9">
       <c r="A23" s="6">
         <v>2025</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>2610</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" ref="E23:E27" si="3">D23-C23</f>
+        <f t="shared" ref="E23:E28" si="3">D23-C23</f>
         <v>159</v>
       </c>
       <c r="F23" s="7">
@@ -1694,14 +1694,14 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H27" si="4">((D23-C23)*F23)+G23</f>
+        <f t="shared" ref="H23:H28" si="4">((D23-C23)*F23)+G23</f>
         <v>604200</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="20.25" spans="1:9">
+    <row r="24" customFormat="1" ht="23.2" spans="1:9">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>2</v>
@@ -1728,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="20.25" spans="1:9">
+    <row r="25" customFormat="1" ht="23.2" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>3</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="20.25" spans="1:9">
+    <row r="26" customFormat="1" ht="23.2" spans="1:9">
       <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>4</v>
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" ht="20.25" spans="2:9">
+    <row r="27" ht="23.2" spans="2:9">
       <c r="B27" s="7">
         <v>5</v>
       </c>
@@ -1808,7 +1808,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" ht="21" spans="1:15">
+    <row r="28" ht="20.4" spans="2:8">
+      <c r="B28" s="7">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3301</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3552</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7">
+        <f t="shared" si="4"/>
+        <v>953800</v>
+      </c>
+    </row>
+    <row r="33" ht="23.2" spans="1:15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1825,7 +1848,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" ht="21" spans="1:15">
+    <row r="34" ht="23.2" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -1846,7 +1869,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" ht="18.75" spans="1:10">
+    <row r="35" ht="20.4" spans="1:10">
       <c r="A35" s="6" t="s">
         <v>3</v>
       </c>
@@ -1878,7 +1901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="20.25" spans="1:9">
+    <row r="36" ht="23.2" spans="1:9">
       <c r="A36" s="6">
         <v>2023</v>
       </c>
@@ -1909,7 +1932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" ht="20.25" spans="1:9">
+    <row r="37" ht="23.2" spans="1:9">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>11</v>
@@ -1949,7 +1972,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="41" ht="20.25" spans="1:9">
+    <row r="41" ht="23.2" spans="1:9">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>4</v>
@@ -1978,7 +2001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" ht="20.25" spans="1:9">
+    <row r="42" ht="23.2" spans="1:9">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>5</v>
@@ -2007,7 +2030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" ht="20.25" spans="1:9">
+    <row r="43" ht="23.2" spans="1:9">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>6</v>
@@ -2036,7 +2059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" ht="20.25" spans="2:9">
+    <row r="44" ht="23.2" spans="2:9">
       <c r="B44" s="7">
         <v>7</v>
       </c>
@@ -2064,7 +2087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" ht="20.25" spans="2:9">
+    <row r="45" ht="23.2" spans="2:9">
       <c r="B45" s="7">
         <v>8</v>
       </c>
@@ -2092,7 +2115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" ht="20.25" spans="2:9">
+    <row r="46" ht="23.2" spans="2:9">
       <c r="B46" s="7">
         <v>9</v>
       </c>
@@ -2120,7 +2143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="20.25" spans="2:9">
+    <row r="47" customFormat="1" ht="23.2" spans="2:9">
       <c r="B47" s="7">
         <v>10</v>
       </c>
@@ -2148,7 +2171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" ht="20.25" spans="2:9">
+    <row r="48" ht="23.2" spans="2:9">
       <c r="B48" s="7">
         <v>11</v>
       </c>
@@ -2176,7 +2199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="20.25" spans="2:9">
+    <row r="49" customFormat="1" ht="23.2" spans="2:9">
       <c r="B49" s="7">
         <v>12</v>
       </c>
@@ -2204,12 +2227,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="21" spans="5:5">
+    <row r="50" s="2" customFormat="1" ht="23.2" spans="5:5">
       <c r="E50" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" ht="18.75" spans="1:10">
+    <row r="51" ht="20.4" spans="1:10">
       <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
@@ -2241,7 +2264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="20.25" spans="1:9">
+    <row r="52" customFormat="1" ht="23.2" spans="1:9">
       <c r="A52" s="6">
         <v>2025</v>
       </c>
@@ -2255,7 +2278,7 @@
         <v>1912</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" ref="E52:E56" si="7">D52-C52</f>
+        <f t="shared" ref="E52:E57" si="7">D52-C52</f>
         <v>145</v>
       </c>
       <c r="F52" s="7">
@@ -2263,14 +2286,14 @@
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7">
-        <f t="shared" ref="H52:H56" si="8">((D52-C52)*F52)+G52</f>
+        <f t="shared" ref="H52:H57" si="8">((D52-C52)*F52)+G52</f>
         <v>551000</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="20.25" spans="1:9">
+    <row r="53" customFormat="1" ht="23.2" spans="1:9">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>2</v>
@@ -2297,7 +2320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="20.25" spans="1:9">
+    <row r="54" customFormat="1" ht="23.2" spans="1:9">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>3</v>
@@ -2324,7 +2347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="20.25" spans="1:9">
+    <row r="55" customFormat="1" ht="23.2" spans="1:9">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>4</v>
@@ -2351,7 +2374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" ht="20.25" spans="2:9">
+    <row r="56" ht="23.2" spans="2:9">
       <c r="B56" s="7">
         <v>5</v>
       </c>
@@ -2377,7 +2400,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" ht="21" spans="1:15">
+    <row r="57" ht="20.4" spans="2:8">
+      <c r="B57" s="7">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7">
+        <v>2546</v>
+      </c>
+      <c r="D57" s="7">
+        <v>2759</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="F57" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7">
+        <f t="shared" si="8"/>
+        <v>809400</v>
+      </c>
+    </row>
+    <row r="61" ht="23.2" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>17</v>
       </c>
@@ -2398,7 +2444,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" ht="18.75" spans="1:10">
+    <row r="62" ht="20.4" spans="1:10">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
@@ -2430,7 +2476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="20.25" spans="1:9">
+    <row r="63" ht="23.2" spans="1:9">
       <c r="A63" s="6">
         <v>2023</v>
       </c>
@@ -2461,7 +2507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" ht="20.25" spans="1:9">
+    <row r="64" ht="23.2" spans="1:9">
       <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>11</v>
@@ -2490,7 +2536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" ht="20.25" spans="1:9">
+    <row r="65" ht="23.2" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="7">
         <v>12</v>
@@ -2522,7 +2568,7 @@
     <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" ht="20.25" spans="1:9">
+    <row r="67" ht="23.2" spans="1:9">
       <c r="A67" s="6">
         <v>2024</v>
       </c>
@@ -2553,7 +2599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" ht="20.25" spans="1:9">
+    <row r="68" ht="23.2" spans="1:9">
       <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>2</v>
@@ -2582,7 +2628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" ht="20.25" spans="1:9">
+    <row r="69" ht="23.2" spans="1:9">
       <c r="A69" s="6"/>
       <c r="B69" s="7">
         <v>3</v>
@@ -2611,7 +2657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" ht="20.25" spans="1:9">
+    <row r="70" ht="23.2" spans="1:9">
       <c r="A70" s="6"/>
       <c r="B70" s="7">
         <v>4</v>
@@ -2640,7 +2686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" ht="20.25" spans="2:9">
+    <row r="71" ht="23.2" spans="2:9">
       <c r="B71" s="7">
         <v>5</v>
       </c>
@@ -2668,7 +2714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" ht="20.25" spans="2:9">
+    <row r="72" ht="23.2" spans="2:9">
       <c r="B72" s="7">
         <v>6</v>
       </c>
@@ -2696,7 +2742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" ht="20.25" spans="2:9">
+    <row r="73" ht="23.2" spans="2:9">
       <c r="B73" s="7">
         <v>7</v>
       </c>
@@ -2724,7 +2770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" ht="20.25" spans="2:9">
+    <row r="74" ht="23.2" spans="2:9">
       <c r="B74" s="7">
         <v>8</v>
       </c>
@@ -2752,7 +2798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" ht="20.25" spans="2:9">
+    <row r="75" ht="23.2" spans="2:9">
       <c r="B75" s="7">
         <v>9</v>
       </c>
@@ -2780,7 +2826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" customFormat="1" ht="20.25" spans="2:9">
+    <row r="76" customFormat="1" ht="23.2" spans="2:9">
       <c r="B76" s="7">
         <v>10</v>
       </c>
@@ -2808,7 +2854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" ht="20.25" spans="2:9">
+    <row r="77" ht="23.2" spans="2:9">
       <c r="B77" s="7">
         <v>11</v>
       </c>
@@ -2836,7 +2882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" customFormat="1" ht="20.25" spans="2:9">
+    <row r="78" customFormat="1" ht="23.2" spans="2:9">
       <c r="B78" s="7">
         <v>12</v>
       </c>
@@ -2864,12 +2910,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="21" spans="5:5">
+    <row r="79" s="2" customFormat="1" ht="23.2" spans="5:5">
       <c r="E79" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" ht="18.75" spans="1:10">
+    <row r="80" ht="20.4" spans="1:10">
       <c r="A80" s="6" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +2947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="20.25" spans="1:9">
+    <row r="81" customFormat="1" ht="23.2" spans="1:9">
       <c r="A81" s="6">
         <v>2025</v>
       </c>
@@ -2915,7 +2961,7 @@
         <v>2550</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" ref="E81:E85" si="12">D81-C81</f>
+        <f t="shared" ref="E81:E86" si="12">D81-C81</f>
         <v>110</v>
       </c>
       <c r="F81" s="7">
@@ -2923,14 +2969,14 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7">
-        <f t="shared" ref="H81:H85" si="13">((D81-C81)*F81)+G81</f>
+        <f t="shared" ref="H81:H86" si="13">((D81-C81)*F81)+G81</f>
         <v>418000</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" customFormat="1" ht="20.25" spans="1:9">
+    <row r="82" customFormat="1" ht="23.2" spans="1:9">
       <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>2</v>
@@ -2957,7 +3003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" customFormat="1" ht="20.25" spans="1:9">
+    <row r="83" customFormat="1" ht="23.2" spans="1:9">
       <c r="A83" s="6"/>
       <c r="B83" s="7">
         <v>3</v>
@@ -2984,7 +3030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" customFormat="1" ht="20.25" spans="1:9">
+    <row r="84" customFormat="1" ht="23.2" spans="1:9">
       <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>4</v>
@@ -3011,7 +3057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" ht="20.25" spans="2:9">
+    <row r="85" ht="23.2" spans="2:9">
       <c r="B85" s="7">
         <v>5</v>
       </c>
@@ -3035,6 +3081,29 @@
       </c>
       <c r="I85" s="9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="86" ht="20.4" spans="2:8">
+      <c r="B86" s="7">
+        <v>6</v>
+      </c>
+      <c r="C86" s="7">
+        <v>3022</v>
+      </c>
+      <c r="D86" s="7">
+        <v>3158</v>
+      </c>
+      <c r="E86" s="7">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="F86" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7">
+        <f t="shared" si="13"/>
+        <v>516800</v>
       </c>
     </row>
   </sheetData>

--- a/tien_dien.xlsx
+++ b/tien_dien.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12580"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="19">
   <si>
     <t>THÔNG TIN TIỀN ĐIỆN HÀNG THÁNG</t>
   </si>
@@ -91,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -616,16 +616,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,21 +1102,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD86"/>
+  <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.859375" customWidth="1"/>
-    <col min="7" max="7" width="14.2890625" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
+    <col min="4" max="5" width="23.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="14.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.4296875" customWidth="1"/>
+    <col min="9" max="9" width="13.4285714285714" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1139,7 +1139,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="23.2" spans="1:15">
+    <row r="2" ht="21" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" ht="20.4" spans="1:10">
+    <row r="3" ht="18.75" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="23.2" spans="1:9">
+    <row r="4" ht="20.25" spans="1:9">
       <c r="A4" s="6">
         <v>2023</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="23.2" spans="1:9">
+    <row r="5" ht="20.25" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>11</v>
@@ -1252,7 +1252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="23.2" spans="1:9">
+    <row r="6" ht="20.25" spans="1:9">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>12</v>
@@ -1289,7 +1289,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" ht="23.2" spans="1:9">
+    <row r="9" ht="20.25" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="23.2" spans="1:9">
+    <row r="10" ht="20.25" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>2</v>
@@ -1347,7 +1347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="23.2" spans="1:9">
+    <row r="11" ht="20.25" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>3</v>
@@ -1376,7 +1376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="23.2" spans="1:9">
+    <row r="12" ht="20.25" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>4</v>
@@ -1405,7 +1405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="23.2" spans="1:9">
+    <row r="13" ht="20.25" spans="1:9">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>5</v>
@@ -1434,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="23.2" spans="1:9">
+    <row r="14" ht="20.25" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>6</v>
@@ -1463,7 +1463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="23.2" spans="1:9">
+    <row r="15" ht="20.25" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>7</v>
@@ -1492,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="23.2" spans="1:9">
+    <row r="16" ht="20.25" spans="1:9">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>8</v>
@@ -1521,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="23.2" spans="1:9">
+    <row r="17" ht="20.25" spans="1:9">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>9</v>
@@ -1550,7 +1550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="23.2" spans="1:9">
+    <row r="18" ht="20.25" spans="1:9">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>10</v>
@@ -1579,7 +1579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="23.2" spans="2:9">
+    <row r="19" ht="20.25" spans="2:9">
       <c r="B19" s="7">
         <v>11</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="23.2" spans="2:9">
+    <row r="20" customFormat="1" ht="20.25" spans="2:9">
       <c r="B20" s="7">
         <v>12</v>
       </c>
@@ -1635,12 +1635,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="23.2" spans="1:1">
+    <row r="21" s="1" customFormat="1" ht="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="20.4" spans="1:10">
+    <row r="22" ht="18.75" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="23.2" spans="1:9">
+    <row r="23" customFormat="1" ht="20.25" spans="1:9">
       <c r="A23" s="6">
         <v>2025</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>2610</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" ref="E23:E28" si="3">D23-C23</f>
+        <f t="shared" ref="E23:E29" si="3">D23-C23</f>
         <v>159</v>
       </c>
       <c r="F23" s="7">
@@ -1694,14 +1694,14 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H28" si="4">((D23-C23)*F23)+G23</f>
+        <f t="shared" ref="H23:H29" si="4">((D23-C23)*F23)+G23</f>
         <v>604200</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="23.2" spans="1:9">
+    <row r="24" customFormat="1" ht="20.25" spans="1:9">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>2</v>
@@ -1728,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="23.2" spans="1:9">
+    <row r="25" customFormat="1" ht="20.25" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>3</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="23.2" spans="1:9">
+    <row r="26" customFormat="1" ht="20.25" spans="1:9">
       <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>4</v>
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" ht="23.2" spans="2:9">
+    <row r="27" ht="20.25" spans="2:9">
       <c r="B27" s="7">
         <v>5</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" ht="20.4" spans="2:8">
+    <row r="28" ht="20.25" spans="2:9">
       <c r="B28" s="7">
         <v>6</v>
       </c>
@@ -1830,8 +1830,34 @@
         <f t="shared" si="4"/>
         <v>953800</v>
       </c>
-    </row>
-    <row r="33" ht="23.2" spans="1:15">
+      <c r="I28" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" spans="2:8">
+      <c r="B29" s="7">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3552</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3755</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="F29" s="7">
+        <v>4500</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7">
+        <f t="shared" si="4"/>
+        <v>913500</v>
+      </c>
+    </row>
+    <row r="33" ht="21" spans="1:15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1848,7 +1874,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" ht="23.2" spans="1:15">
+    <row r="34" ht="21" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1895,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" ht="20.4" spans="1:10">
+    <row r="35" ht="18.75" spans="1:10">
       <c r="A35" s="6" t="s">
         <v>3</v>
       </c>
@@ -1901,7 +1927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="23.2" spans="1:9">
+    <row r="36" ht="20.25" spans="1:9">
       <c r="A36" s="6">
         <v>2023</v>
       </c>
@@ -1932,7 +1958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" ht="23.2" spans="1:9">
+    <row r="37" ht="20.25" spans="1:9">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>11</v>
@@ -1972,7 +1998,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="41" ht="23.2" spans="1:9">
+    <row r="41" ht="20.25" spans="1:9">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>4</v>
@@ -2001,7 +2027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" ht="23.2" spans="1:9">
+    <row r="42" ht="20.25" spans="1:9">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>5</v>
@@ -2030,7 +2056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" ht="23.2" spans="1:9">
+    <row r="43" ht="20.25" spans="1:9">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>6</v>
@@ -2059,7 +2085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" ht="23.2" spans="2:9">
+    <row r="44" ht="20.25" spans="2:9">
       <c r="B44" s="7">
         <v>7</v>
       </c>
@@ -2087,7 +2113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" ht="23.2" spans="2:9">
+    <row r="45" ht="20.25" spans="2:9">
       <c r="B45" s="7">
         <v>8</v>
       </c>
@@ -2115,7 +2141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" ht="23.2" spans="2:9">
+    <row r="46" ht="20.25" spans="2:9">
       <c r="B46" s="7">
         <v>9</v>
       </c>
@@ -2143,7 +2169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="23.2" spans="2:9">
+    <row r="47" customFormat="1" ht="20.25" spans="2:9">
       <c r="B47" s="7">
         <v>10</v>
       </c>
@@ -2171,7 +2197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" ht="23.2" spans="2:9">
+    <row r="48" ht="20.25" spans="2:9">
       <c r="B48" s="7">
         <v>11</v>
       </c>
@@ -2199,7 +2225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="23.2" spans="2:9">
+    <row r="49" customFormat="1" ht="20.25" spans="2:9">
       <c r="B49" s="7">
         <v>12</v>
       </c>
@@ -2227,12 +2253,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="23.2" spans="5:5">
+    <row r="50" s="2" customFormat="1" ht="21" spans="5:5">
       <c r="E50" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" ht="20.4" spans="1:10">
+    <row r="51" ht="18.75" spans="1:10">
       <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +2290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="23.2" spans="1:9">
+    <row r="52" customFormat="1" ht="20.25" spans="1:9">
       <c r="A52" s="6">
         <v>2025</v>
       </c>
@@ -2278,7 +2304,7 @@
         <v>1912</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" ref="E52:E57" si="7">D52-C52</f>
+        <f t="shared" ref="E52:E58" si="7">D52-C52</f>
         <v>145</v>
       </c>
       <c r="F52" s="7">
@@ -2286,14 +2312,14 @@
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7">
-        <f t="shared" ref="H52:H57" si="8">((D52-C52)*F52)+G52</f>
+        <f t="shared" ref="H52:H58" si="8">((D52-C52)*F52)+G52</f>
         <v>551000</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="23.2" spans="1:9">
+    <row r="53" customFormat="1" ht="20.25" spans="1:9">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>2</v>
@@ -2320,7 +2346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="23.2" spans="1:9">
+    <row r="54" customFormat="1" ht="20.25" spans="1:9">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>3</v>
@@ -2347,7 +2373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="23.2" spans="1:9">
+    <row r="55" customFormat="1" ht="20.25" spans="1:9">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>4</v>
@@ -2374,7 +2400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" ht="23.2" spans="2:9">
+    <row r="56" ht="20.25" spans="2:9">
       <c r="B56" s="7">
         <v>5</v>
       </c>
@@ -2400,7 +2426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" ht="20.4" spans="2:8">
+    <row r="57" ht="20.25" spans="2:9">
       <c r="B57" s="7">
         <v>6</v>
       </c>
@@ -2422,8 +2448,34 @@
         <f t="shared" si="8"/>
         <v>809400</v>
       </c>
-    </row>
-    <row r="61" ht="23.2" spans="1:15">
+      <c r="I57" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="18.75" spans="2:8">
+      <c r="B58" s="7">
+        <v>7</v>
+      </c>
+      <c r="C58" s="7">
+        <v>2759</v>
+      </c>
+      <c r="D58" s="7">
+        <v>2906</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="F58" s="7">
+        <v>4500</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7">
+        <f t="shared" si="8"/>
+        <v>661500</v>
+      </c>
+    </row>
+    <row r="61" ht="21" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>17</v>
       </c>
@@ -2444,7 +2496,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" ht="20.4" spans="1:10">
+    <row r="62" ht="18.75" spans="1:10">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
@@ -2476,7 +2528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="23.2" spans="1:9">
+    <row r="63" ht="20.25" spans="1:9">
       <c r="A63" s="6">
         <v>2023</v>
       </c>
@@ -2507,7 +2559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" ht="23.2" spans="1:9">
+    <row r="64" ht="20.25" spans="1:9">
       <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>11</v>
@@ -2536,7 +2588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" ht="23.2" spans="1:9">
+    <row r="65" ht="20.25" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="7">
         <v>12</v>
@@ -2568,7 +2620,7 @@
     <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" ht="23.2" spans="1:9">
+    <row r="67" ht="20.25" spans="1:9">
       <c r="A67" s="6">
         <v>2024</v>
       </c>
@@ -2599,7 +2651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" ht="23.2" spans="1:9">
+    <row r="68" ht="20.25" spans="1:9">
       <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>2</v>
@@ -2628,7 +2680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" ht="23.2" spans="1:9">
+    <row r="69" ht="20.25" spans="1:9">
       <c r="A69" s="6"/>
       <c r="B69" s="7">
         <v>3</v>
@@ -2657,7 +2709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" ht="23.2" spans="1:9">
+    <row r="70" ht="20.25" spans="1:9">
       <c r="A70" s="6"/>
       <c r="B70" s="7">
         <v>4</v>
@@ -2686,7 +2738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" ht="23.2" spans="2:9">
+    <row r="71" ht="20.25" spans="2:9">
       <c r="B71" s="7">
         <v>5</v>
       </c>
@@ -2714,7 +2766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" ht="23.2" spans="2:9">
+    <row r="72" ht="20.25" spans="2:9">
       <c r="B72" s="7">
         <v>6</v>
       </c>
@@ -2742,7 +2794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" ht="23.2" spans="2:9">
+    <row r="73" ht="20.25" spans="2:9">
       <c r="B73" s="7">
         <v>7</v>
       </c>
@@ -2770,7 +2822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" ht="23.2" spans="2:9">
+    <row r="74" ht="20.25" spans="2:9">
       <c r="B74" s="7">
         <v>8</v>
       </c>
@@ -2798,7 +2850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" ht="23.2" spans="2:9">
+    <row r="75" ht="20.25" spans="2:9">
       <c r="B75" s="7">
         <v>9</v>
       </c>
@@ -2826,7 +2878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" customFormat="1" ht="23.2" spans="2:9">
+    <row r="76" customFormat="1" ht="20.25" spans="2:9">
       <c r="B76" s="7">
         <v>10</v>
       </c>
@@ -2854,7 +2906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" ht="23.2" spans="2:9">
+    <row r="77" ht="20.25" spans="2:9">
       <c r="B77" s="7">
         <v>11</v>
       </c>
@@ -2882,7 +2934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" customFormat="1" ht="23.2" spans="2:9">
+    <row r="78" customFormat="1" ht="20.25" spans="2:9">
       <c r="B78" s="7">
         <v>12</v>
       </c>
@@ -2910,12 +2962,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="23.2" spans="5:5">
+    <row r="79" s="2" customFormat="1" ht="21" spans="5:5">
       <c r="E79" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" ht="20.4" spans="1:10">
+    <row r="80" ht="18.75" spans="1:10">
       <c r="A80" s="6" t="s">
         <v>3</v>
       </c>
@@ -2947,7 +2999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="23.2" spans="1:9">
+    <row r="81" customFormat="1" ht="20.25" spans="1:9">
       <c r="A81" s="6">
         <v>2025</v>
       </c>
@@ -2961,7 +3013,7 @@
         <v>2550</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" ref="E81:E86" si="12">D81-C81</f>
+        <f t="shared" ref="E81:E87" si="12">D81-C81</f>
         <v>110</v>
       </c>
       <c r="F81" s="7">
@@ -2969,14 +3021,14 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7">
-        <f t="shared" ref="H81:H86" si="13">((D81-C81)*F81)+G81</f>
+        <f t="shared" ref="H81:H87" si="13">((D81-C81)*F81)+G81</f>
         <v>418000</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" customFormat="1" ht="23.2" spans="1:9">
+    <row r="82" customFormat="1" ht="20.25" spans="1:9">
       <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>2</v>
@@ -3003,7 +3055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" customFormat="1" ht="23.2" spans="1:9">
+    <row r="83" customFormat="1" ht="20.25" spans="1:9">
       <c r="A83" s="6"/>
       <c r="B83" s="7">
         <v>3</v>
@@ -3030,7 +3082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" customFormat="1" ht="23.2" spans="1:9">
+    <row r="84" customFormat="1" ht="20.25" spans="1:9">
       <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>4</v>
@@ -3057,7 +3109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" ht="23.2" spans="2:9">
+    <row r="85" ht="20.25" spans="2:9">
       <c r="B85" s="7">
         <v>5</v>
       </c>
@@ -3083,7 +3135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" ht="20.4" spans="2:8">
+    <row r="86" ht="20.25" spans="2:9">
       <c r="B86" s="7">
         <v>6</v>
       </c>
@@ -3104,6 +3156,32 @@
       <c r="H86" s="7">
         <f t="shared" si="13"/>
         <v>516800</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" ht="18.75" spans="2:8">
+      <c r="B87" s="7">
+        <v>7</v>
+      </c>
+      <c r="C87" s="7">
+        <v>3158</v>
+      </c>
+      <c r="D87" s="7">
+        <v>3285</v>
+      </c>
+      <c r="E87" s="7">
+        <f t="shared" si="12"/>
+        <v>127</v>
+      </c>
+      <c r="F87" s="7">
+        <v>4500</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7">
+        <f t="shared" si="13"/>
+        <v>571500</v>
       </c>
     </row>
   </sheetData>

--- a/tien_dien.xlsx
+++ b/tien_dien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="19">
   <si>
     <t>THÔNG TIN TIỀN ĐIỆN HÀNG THÁNG</t>
   </si>
@@ -791,7 +791,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1102,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD87"/>
+  <dimension ref="A1:XFD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1686,7 +1686,7 @@
         <v>2610</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" ref="E23:E29" si="3">D23-C23</f>
+        <f t="shared" ref="E23:E31" si="3">D23-C23</f>
         <v>159</v>
       </c>
       <c r="F23" s="7">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H29" si="4">((D23-C23)*F23)+G23</f>
+        <f t="shared" ref="H23:H31" si="4">((D23-C23)*F23)+G23</f>
         <v>604200</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -1834,7 +1834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" ht="18.75" spans="2:8">
+    <row r="29" ht="20.25" spans="2:9">
       <c r="B29" s="7">
         <v>7</v>
       </c>
@@ -1856,201 +1856,155 @@
         <f t="shared" si="4"/>
         <v>913500</v>
       </c>
-    </row>
-    <row r="33" ht="21" spans="1:15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" ht="21" spans="1:15">
-      <c r="A34" s="4" t="s">
+      <c r="I29" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="20.25" spans="2:9">
+      <c r="B30" s="7">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3755</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3905</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4700</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7">
+        <f t="shared" si="4"/>
+        <v>705000</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="18.75" spans="2:8">
+      <c r="B31" s="7">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3905</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4068</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4200</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
+        <f t="shared" si="4"/>
+        <v>684600</v>
+      </c>
+    </row>
+    <row r="39" ht="21" spans="1:15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" ht="21" spans="1:15">
+      <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" ht="18.75" spans="1:10">
-      <c r="A35" s="6" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" ht="18.75" spans="1:10">
+      <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="20.25" spans="1:9">
-      <c r="A36" s="6">
+    <row r="42" ht="20.25" spans="1:9">
+      <c r="A42" s="6">
         <v>2023</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B42" s="7">
         <v>10</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C42" s="7">
         <v>157</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D42" s="7">
         <v>237</v>
       </c>
-      <c r="E36" s="7">
-        <f t="shared" ref="E36:E49" si="5">D36-C36</f>
+      <c r="E42" s="7">
+        <f t="shared" ref="E42:E55" si="5">D42-C42</f>
         <v>80</v>
       </c>
-      <c r="F36" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F42" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G42" s="7">
         <v>60000</v>
       </c>
-      <c r="H36" s="7">
-        <f t="shared" ref="H36:H49" si="6">((D36-C36)*F36)+G36</f>
+      <c r="H42" s="7">
+        <f t="shared" ref="H42:H55" si="6">((D42-C42)*F42)+G42</f>
         <v>364000</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" ht="20.25" spans="1:9">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7">
-        <v>11</v>
-      </c>
-      <c r="C37" s="7">
-        <v>237</v>
-      </c>
-      <c r="D37" s="7">
-        <v>323</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="F37" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G37" s="7">
-        <v>60000</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="6"/>
-        <v>386800</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="6">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="41" ht="20.25" spans="1:9">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7">
-        <v>4</v>
-      </c>
-      <c r="C41" s="7">
-        <v>345</v>
-      </c>
-      <c r="D41" s="7">
-        <v>469</v>
-      </c>
-      <c r="E41" s="7">
-        <f t="shared" si="5"/>
-        <v>124</v>
-      </c>
-      <c r="F41" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" si="6"/>
-        <v>471200</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" ht="20.25" spans="1:9">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7">
-        <v>5</v>
-      </c>
-      <c r="C42" s="7">
-        <v>469</v>
-      </c>
-      <c r="D42" s="7">
-        <v>679</v>
-      </c>
-      <c r="E42" s="7">
-        <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-      <c r="F42" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <f t="shared" si="6"/>
-        <v>798000</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>13</v>
@@ -2059,1129 +2013,1367 @@
     <row r="43" ht="20.25" spans="1:9">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C43" s="7">
-        <v>679</v>
+        <v>237</v>
       </c>
       <c r="D43" s="7">
-        <v>892</v>
+        <v>323</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="5"/>
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="F43" s="7">
         <v>3800</v>
       </c>
       <c r="G43" s="7">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="6"/>
+        <v>386800</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="47" ht="20.25" spans="1:9">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7">
+        <v>4</v>
+      </c>
+      <c r="C47" s="7">
+        <v>345</v>
+      </c>
+      <c r="D47" s="7">
+        <v>469</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="F47" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="6"/>
+        <v>471200</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" ht="20.25" spans="1:9">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7">
+        <v>5</v>
+      </c>
+      <c r="C48" s="7">
+        <v>469</v>
+      </c>
+      <c r="D48" s="7">
+        <v>679</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="F48" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="6"/>
+        <v>798000</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" ht="20.25" spans="1:9">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7">
+        <v>6</v>
+      </c>
+      <c r="C49" s="7">
+        <v>679</v>
+      </c>
+      <c r="D49" s="7">
+        <v>892</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="5"/>
+        <v>213</v>
+      </c>
+      <c r="F49" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="6"/>
         <v>809400</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" ht="20.25" spans="2:9">
-      <c r="B44" s="7">
+      <c r="I49" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" ht="20.25" spans="2:9">
+      <c r="B50" s="7">
         <v>7</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C50" s="7">
         <v>892</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D50" s="7">
         <v>1041</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E50" s="7">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
-      <c r="F44" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="F50" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G50" s="7">
         <v>0</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H50" s="7">
         <f t="shared" si="6"/>
         <v>566200</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" ht="20.25" spans="2:9">
-      <c r="B45" s="7">
+      <c r="I50" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" ht="20.25" spans="2:9">
+      <c r="B51" s="7">
         <v>8</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C51" s="7">
         <v>1041</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1205</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E51" s="7">
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="F45" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="F51" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G51" s="7">
         <v>0</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H51" s="7">
         <f t="shared" si="6"/>
         <v>623200</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" ht="20.25" spans="2:9">
-      <c r="B46" s="7">
+      <c r="I51" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" ht="20.25" spans="2:9">
+      <c r="B52" s="7">
         <v>9</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C52" s="7">
         <v>1205</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D52" s="7">
         <v>1331</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E52" s="7">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="F46" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G46" s="7">
+      <c r="F52" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G52" s="7">
         <v>0</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H52" s="7">
         <f t="shared" si="6"/>
         <v>478800</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B47" s="7">
+      <c r="I52" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B53" s="7">
         <v>10</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C53" s="7">
         <v>1331</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D53" s="7">
         <v>1491</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E53" s="7">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="F47" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G47" s="7">
+      <c r="F53" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G53" s="7">
         <v>0</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H53" s="7">
         <f t="shared" si="6"/>
         <v>608000</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" ht="20.25" spans="2:9">
-      <c r="B48" s="7">
+      <c r="I53" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" ht="20.25" spans="2:9">
+      <c r="B54" s="7">
         <v>11</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C54" s="7">
         <v>1491</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D54" s="7">
         <v>1647</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E54" s="7">
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="F48" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="F54" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G54" s="7">
         <v>0</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H54" s="7">
         <f t="shared" si="6"/>
         <v>592800</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B49" s="7">
+      <c r="I54" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B55" s="7">
         <v>12</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C55" s="7">
         <v>1647</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D55" s="7">
         <v>1767</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E55" s="7">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="F49" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="F55" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G55" s="7">
         <v>0</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H55" s="7">
         <f t="shared" si="6"/>
         <v>456000</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="21" spans="5:5">
-      <c r="E50" s="8" t="s">
+      <c r="I55" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="21" spans="5:5">
+      <c r="E56" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" ht="18.75" spans="1:10">
-      <c r="A51" s="6" t="s">
+    <row r="57" ht="18.75" spans="1:10">
+      <c r="A57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A52" s="6">
+    <row r="58" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A58" s="6">
         <v>2025</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B58" s="7">
         <v>1</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C58" s="7">
         <v>1767</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D58" s="7">
         <v>1912</v>
       </c>
-      <c r="E52" s="7">
-        <f t="shared" ref="E52:E58" si="7">D52-C52</f>
+      <c r="E58" s="7">
+        <f t="shared" ref="E58:E66" si="7">D58-C58</f>
         <v>145</v>
       </c>
-      <c r="F52" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7">
-        <f t="shared" ref="H52:H58" si="8">((D52-C52)*F52)+G52</f>
+      <c r="F58" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7">
+        <f t="shared" ref="H58:H66" si="8">((D58-C58)*F58)+G58</f>
         <v>551000</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7">
+      <c r="I58" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7">
         <v>2</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C59" s="7">
         <v>1912</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D59" s="7">
         <v>1997</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E59" s="7">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="F53" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7">
+      <c r="F59" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7">
         <f t="shared" si="8"/>
         <v>323000</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7">
+      <c r="I59" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7">
         <v>3</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C60" s="7">
         <v>1997</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D60" s="7">
         <v>2160</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E60" s="7">
         <f t="shared" si="7"/>
         <v>163</v>
       </c>
-      <c r="F54" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7">
+      <c r="F60" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7">
         <f t="shared" si="8"/>
         <v>619400</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7">
+      <c r="I60" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7">
         <v>4</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C61" s="7">
         <v>2160</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D61" s="7">
         <v>2331</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E61" s="7">
         <f t="shared" si="7"/>
         <v>171</v>
       </c>
-      <c r="F55" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7">
+      <c r="F61" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7">
         <f t="shared" si="8"/>
         <v>649800</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" ht="20.25" spans="2:9">
-      <c r="B56" s="7">
+      <c r="I61" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" ht="20.25" spans="2:9">
+      <c r="B62" s="7">
         <v>5</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C62" s="7">
         <v>2331</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D62" s="7">
         <v>2546</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E62" s="7">
         <f t="shared" si="7"/>
         <v>215</v>
       </c>
-      <c r="F56" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7">
+      <c r="F62" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7">
         <f t="shared" si="8"/>
         <v>817000</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" ht="20.25" spans="2:9">
-      <c r="B57" s="7">
+      <c r="I62" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" ht="20.25" spans="2:9">
+      <c r="B63" s="7">
         <v>6</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C63" s="7">
         <v>2546</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D63" s="7">
         <v>2759</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E63" s="7">
         <f t="shared" si="7"/>
         <v>213</v>
       </c>
-      <c r="F57" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7">
+      <c r="F63" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7">
         <f t="shared" si="8"/>
         <v>809400</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" ht="18.75" spans="2:8">
-      <c r="B58" s="7">
+      <c r="I63" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" ht="20.25" spans="2:9">
+      <c r="B64" s="7">
         <v>7</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C64" s="7">
         <v>2759</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D64" s="7">
         <v>2906</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E64" s="7">
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F64" s="7">
         <v>4500</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7">
         <f t="shared" si="8"/>
         <v>661500</v>
       </c>
-    </row>
-    <row r="61" ht="21" spans="1:15">
-      <c r="A61" s="4" t="s">
+      <c r="I64" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" ht="20.25" spans="2:9">
+      <c r="B65" s="7">
+        <v>8</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2906</v>
+      </c>
+      <c r="D65" s="7">
+        <v>3068</v>
+      </c>
+      <c r="E65" s="7">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="F65" s="7">
+        <v>4700</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7">
+        <f t="shared" si="8"/>
+        <v>761400</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" ht="18.75" spans="2:8">
+      <c r="B66" s="7">
+        <v>9</v>
+      </c>
+      <c r="C66" s="7">
+        <v>3068</v>
+      </c>
+      <c r="D66" s="7">
+        <v>3207</v>
+      </c>
+      <c r="E66" s="7">
+        <f t="shared" si="7"/>
+        <v>139</v>
+      </c>
+      <c r="F66" s="7">
+        <v>4200</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7">
+        <f t="shared" si="8"/>
+        <v>583800</v>
+      </c>
+    </row>
+    <row r="67" ht="18.75" spans="2:8">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" ht="18.75" spans="2:8">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" ht="18.75" spans="2:8">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" ht="18.75" spans="2:8">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="72" ht="21" spans="1:15">
+      <c r="A72" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-    </row>
-    <row r="62" ht="18.75" spans="1:10">
-      <c r="A62" s="6" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" ht="18.75" spans="1:10">
+      <c r="A73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="20.25" spans="1:9">
-      <c r="A63" s="6">
+    <row r="74" ht="20.25" spans="1:9">
+      <c r="A74" s="6">
         <v>2023</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B74" s="7">
         <v>10</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C74" s="7">
         <v>371</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D74" s="7">
         <v>464</v>
       </c>
-      <c r="E63" s="7">
-        <f t="shared" ref="E63:E78" si="9">D63-C63</f>
+      <c r="E74" s="7">
+        <f t="shared" ref="E74:E89" si="9">D74-C74</f>
         <v>93</v>
       </c>
-      <c r="F63" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G63" s="7">
+      <c r="F74" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G74" s="7">
         <v>60000</v>
       </c>
-      <c r="H63" s="7">
-        <f t="shared" ref="H63:H65" si="10">((D63-C63)*F63)+G63</f>
+      <c r="H74" s="7">
+        <f t="shared" ref="H74:H76" si="10">((D74-C74)*F74)+G74</f>
         <v>413400</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" ht="20.25" spans="1:9">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7">
+      <c r="I74" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" ht="20.25" spans="1:9">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7">
         <v>11</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C75" s="7">
         <v>464</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D75" s="7">
         <v>627</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E75" s="7">
         <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="F64" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G64" s="7">
+      <c r="F75" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G75" s="7">
         <v>60000</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H75" s="7">
         <f t="shared" si="10"/>
         <v>679400</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" ht="20.25" spans="1:9">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7">
+      <c r="I75" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" ht="20.25" spans="1:9">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7">
         <v>12</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C76" s="7">
         <v>627</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D76" s="7">
         <v>774</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E76" s="7">
         <f t="shared" si="9"/>
         <v>147</v>
       </c>
-      <c r="F65" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G65" s="7">
+      <c r="F76" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G76" s="7">
         <v>60000</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H76" s="7">
         <f t="shared" si="10"/>
         <v>618600</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="6"/>
-    </row>
-    <row r="67" ht="20.25" spans="1:9">
-      <c r="A67" s="6">
+      <c r="I76" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" ht="20.25" spans="1:9">
+      <c r="A78" s="6">
         <v>2024</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B78" s="7">
         <v>1</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C78" s="7">
         <v>774</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D78" s="7">
         <v>927</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E78" s="7">
         <f t="shared" si="9"/>
         <v>153</v>
       </c>
-      <c r="F67" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G67" s="7">
+      <c r="F78" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G78" s="7">
         <v>60000</v>
       </c>
-      <c r="H67" s="7">
-        <f t="shared" ref="H67:H78" si="11">((D67-C67)*F67)+G67</f>
+      <c r="H78" s="7">
+        <f t="shared" ref="H78:H89" si="11">((D78-C78)*F78)+G78</f>
         <v>641400</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" ht="20.25" spans="1:9">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7">
+      <c r="I78" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" ht="20.25" spans="1:9">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7">
         <v>2</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C79" s="7">
         <v>927</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D79" s="7">
         <v>1110</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E79" s="7">
         <f t="shared" si="9"/>
         <v>183</v>
       </c>
-      <c r="F68" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G68" s="7">
+      <c r="F79" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G79" s="7">
         <v>60000</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H79" s="7">
         <f t="shared" si="11"/>
         <v>755400</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" ht="20.25" spans="1:9">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7">
+      <c r="I79" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" ht="20.25" spans="1:9">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7">
         <v>3</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C80" s="7">
         <v>1110</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D80" s="7">
         <v>1267</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E80" s="7">
         <f t="shared" si="9"/>
         <v>157</v>
       </c>
-      <c r="F69" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G69" s="7">
+      <c r="F80" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G80" s="7">
         <v>0</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H80" s="7">
         <f t="shared" si="11"/>
         <v>596600</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" ht="20.25" spans="1:9">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7">
+      <c r="I80" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" ht="20.25" spans="1:9">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7">
         <v>4</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C81" s="7">
         <v>1267</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D81" s="7">
         <v>1436</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E81" s="7">
         <f t="shared" si="9"/>
         <v>169</v>
       </c>
-      <c r="F70" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G70" s="7">
+      <c r="F81" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G81" s="7">
         <v>0</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H81" s="7">
         <f t="shared" si="11"/>
         <v>642200</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" ht="20.25" spans="2:9">
-      <c r="B71" s="7">
+      <c r="I81" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" ht="20.25" spans="2:9">
+      <c r="B82" s="7">
         <v>5</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C82" s="7">
         <v>1436</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D82" s="7">
         <v>1623</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E82" s="7">
         <f t="shared" si="9"/>
         <v>187</v>
       </c>
-      <c r="F71" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G71" s="7">
+      <c r="F82" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G82" s="7">
         <v>0</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H82" s="7">
         <f t="shared" si="11"/>
         <v>710600</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" ht="20.25" spans="2:9">
-      <c r="B72" s="7">
+      <c r="I82" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" ht="20.25" spans="2:9">
+      <c r="B83" s="7">
         <v>6</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C83" s="7">
         <v>1623</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D83" s="7">
         <v>1763</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E83" s="7">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="F72" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G72" s="7">
+      <c r="F83" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G83" s="7">
         <v>0</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H83" s="7">
         <f t="shared" si="11"/>
         <v>532000</v>
       </c>
-      <c r="I72" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" ht="20.25" spans="2:9">
-      <c r="B73" s="7">
+      <c r="I83" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" ht="20.25" spans="2:9">
+      <c r="B84" s="7">
         <v>7</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C84" s="7">
         <v>1763</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D84" s="7">
         <v>1877</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E84" s="7">
         <f t="shared" si="9"/>
         <v>114</v>
       </c>
-      <c r="F73" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G73" s="7">
+      <c r="F84" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G84" s="7">
         <v>0</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H84" s="7">
         <f t="shared" si="11"/>
         <v>433200</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" ht="20.25" spans="2:9">
-      <c r="B74" s="7">
+      <c r="I84" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" ht="20.25" spans="2:9">
+      <c r="B85" s="7">
         <v>8</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C85" s="7">
         <v>1877</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D85" s="7">
         <v>2000</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E85" s="7">
         <f t="shared" si="9"/>
         <v>123</v>
       </c>
-      <c r="F74" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G74" s="7">
+      <c r="F85" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G85" s="7">
         <v>0</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H85" s="7">
         <f t="shared" si="11"/>
         <v>467400</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" ht="20.25" spans="2:9">
-      <c r="B75" s="7">
+      <c r="I85" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" ht="20.25" spans="2:9">
+      <c r="B86" s="7">
         <v>9</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C86" s="7">
         <v>2000</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D86" s="7">
         <v>2104</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E86" s="7">
         <f t="shared" si="9"/>
         <v>104</v>
       </c>
-      <c r="F75" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G75" s="7">
+      <c r="F86" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G86" s="7">
         <v>0</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H86" s="7">
         <f t="shared" si="11"/>
         <v>395200</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B76" s="7">
+      <c r="I86" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B87" s="7">
         <v>10</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C87" s="7">
         <v>2104</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D87" s="7">
         <v>2230</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E87" s="7">
         <f t="shared" si="9"/>
         <v>126</v>
       </c>
-      <c r="F76" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G76" s="7">
+      <c r="F87" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G87" s="7">
         <v>0</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H87" s="7">
         <f t="shared" si="11"/>
         <v>478800</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" ht="20.25" spans="2:9">
-      <c r="B77" s="7">
+      <c r="I87" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" ht="20.25" spans="2:9">
+      <c r="B88" s="7">
         <v>11</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C88" s="7">
         <v>2230</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D88" s="7">
         <v>2339</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E88" s="7">
         <f t="shared" si="9"/>
         <v>109</v>
       </c>
-      <c r="F77" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G77" s="7">
+      <c r="F88" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G88" s="7">
         <v>0</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H88" s="7">
         <f t="shared" si="11"/>
         <v>414200</v>
       </c>
-      <c r="I77" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B78" s="7">
+      <c r="I88" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B89" s="7">
         <v>12</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C89" s="7">
         <v>2339</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D89" s="7">
         <v>2440</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E89" s="7">
         <f t="shared" si="9"/>
         <v>101</v>
       </c>
-      <c r="F78" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G78" s="7">
+      <c r="F89" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G89" s="7">
         <v>0</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H89" s="7">
         <f t="shared" si="11"/>
         <v>383800</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="21" spans="5:5">
-      <c r="E79" s="8" t="s">
+      <c r="I89" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="21" spans="5:5">
+      <c r="E90" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" ht="18.75" spans="1:10">
-      <c r="A80" s="6" t="s">
+    <row r="91" ht="18.75" spans="1:10">
+      <c r="A91" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D91" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F91" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I91" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="J91" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A81" s="6">
+    <row r="92" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A92" s="6">
         <v>2025</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B92" s="7">
         <v>1</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C92" s="7">
         <v>2440</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D92" s="7">
         <v>2550</v>
       </c>
-      <c r="E81" s="7">
-        <f t="shared" ref="E81:E87" si="12">D81-C81</f>
+      <c r="E92" s="7">
+        <f t="shared" ref="E92:E100" si="12">D92-C92</f>
         <v>110</v>
       </c>
-      <c r="F81" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7">
-        <f t="shared" ref="H81:H87" si="13">((D81-C81)*F81)+G81</f>
+      <c r="F92" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7">
+        <f t="shared" ref="H92:H100" si="13">((D92-C92)*F92)+G92</f>
         <v>418000</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7">
+      <c r="I92" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7">
         <v>2</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C93" s="7">
         <v>2550</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D93" s="7">
         <v>2647</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E93" s="7">
         <f t="shared" si="12"/>
         <v>97</v>
       </c>
-      <c r="F82" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7">
+      <c r="F93" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7">
         <f t="shared" si="13"/>
         <v>368600</v>
       </c>
-      <c r="I82" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7">
+      <c r="I93" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A94" s="6"/>
+      <c r="B94" s="7">
         <v>3</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C94" s="7">
         <v>2647</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D94" s="7">
         <v>2747</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E94" s="7">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="F83" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7">
+      <c r="F94" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7">
         <f t="shared" si="13"/>
         <v>380000</v>
       </c>
-      <c r="I83" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7">
+      <c r="I94" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7">
         <v>4</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C95" s="7">
         <v>2747</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D95" s="7">
         <v>2882</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E95" s="7">
         <f t="shared" si="12"/>
         <v>135</v>
       </c>
-      <c r="F84" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7">
+      <c r="F95" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7">
         <f t="shared" si="13"/>
         <v>513000</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" ht="20.25" spans="2:9">
-      <c r="B85" s="7">
+      <c r="I95" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" ht="20.25" spans="2:9">
+      <c r="B96" s="7">
         <v>5</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C96" s="7">
         <v>2882</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D96" s="7">
         <v>3022</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E96" s="7">
         <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="F85" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7">
+      <c r="F96" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7">
         <f t="shared" si="13"/>
         <v>532000</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" ht="20.25" spans="2:9">
-      <c r="B86" s="7">
+      <c r="I96" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" ht="20.25" spans="2:9">
+      <c r="B97" s="7">
         <v>6</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C97" s="7">
         <v>3022</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D97" s="7">
         <v>3158</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E97" s="7">
         <f t="shared" si="12"/>
         <v>136</v>
       </c>
-      <c r="F86" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7">
+      <c r="F97" s="7">
+        <v>3800</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7">
         <f t="shared" si="13"/>
         <v>516800</v>
       </c>
-      <c r="I86" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" ht="18.75" spans="2:8">
-      <c r="B87" s="7">
+      <c r="I97" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" ht="20.25" spans="2:9">
+      <c r="B98" s="7">
         <v>7</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C98" s="7">
         <v>3158</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D98" s="7">
         <v>3285</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E98" s="7">
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F98" s="7">
         <v>4500</v>
       </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7">
+      <c r="G98" s="7"/>
+      <c r="H98" s="7">
         <f t="shared" si="13"/>
         <v>571500</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" ht="20.25" spans="2:9">
+      <c r="B99" s="7">
+        <v>8</v>
+      </c>
+      <c r="C99" s="7">
+        <v>3285</v>
+      </c>
+      <c r="D99" s="7">
+        <v>3451</v>
+      </c>
+      <c r="E99" s="7">
+        <f t="shared" si="12"/>
+        <v>166</v>
+      </c>
+      <c r="F99" s="7">
+        <v>4700</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7">
+        <f t="shared" si="13"/>
+        <v>780200</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" ht="18.75" spans="2:8">
+      <c r="B100" s="7">
+        <v>9</v>
+      </c>
+      <c r="C100" s="7">
+        <v>3451</v>
+      </c>
+      <c r="D100" s="7">
+        <v>3589</v>
+      </c>
+      <c r="E100" s="7">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="F100" s="7">
+        <v>4200</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7">
+        <f t="shared" si="13"/>
+        <v>579600</v>
       </c>
     </row>
   </sheetData>
@@ -3190,19 +3382,19 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:O2"/>
     <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:O72"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A92:A95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/tien_dien.xlsx
+++ b/tien_dien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="19">
   <si>
     <t>THÔNG TIN TIỀN ĐIỆN HÀNG THÁNG</t>
   </si>
@@ -1102,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD100"/>
+  <dimension ref="A1:XFD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1686,7 +1686,7 @@
         <v>2610</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" ref="E23:E31" si="3">D23-C23</f>
+        <f t="shared" ref="E23:E33" si="3">D23-C23</f>
         <v>159</v>
       </c>
       <c r="F23" s="7">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H31" si="4">((D23-C23)*F23)+G23</f>
+        <f t="shared" ref="H23:H33" si="4">((D23-C23)*F23)+G23</f>
         <v>604200</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -1886,7 +1886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="18.75" spans="2:8">
+    <row r="31" customFormat="1" ht="20.25" spans="2:9">
       <c r="B31" s="7">
         <v>9</v>
       </c>
@@ -1907,6 +1907,58 @@
       <c r="H31" s="7">
         <f t="shared" si="4"/>
         <v>684600</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="20.25" spans="2:9">
+      <c r="B32" s="7">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4068</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4225</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4200</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7">
+        <f t="shared" si="4"/>
+        <v>659400</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" spans="2:8">
+      <c r="B33" s="7">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4225</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4368</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="F33" s="7">
+        <v>4100</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7">
+        <f t="shared" si="4"/>
+        <v>586300</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:15">
@@ -2356,7 +2408,7 @@
         <v>1912</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" ref="E58:E66" si="7">D58-C58</f>
+        <f t="shared" ref="E58:E68" si="7">D58-C58</f>
         <v>145</v>
       </c>
       <c r="F58" s="7">
@@ -2364,7 +2416,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7">
-        <f t="shared" ref="H58:H66" si="8">((D58-C58)*F58)+G58</f>
+        <f t="shared" ref="H58:H68" si="8">((D58-C58)*F58)+G58</f>
         <v>551000</v>
       </c>
       <c r="I58" s="9" t="s">
@@ -2556,7 +2608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" customFormat="1" ht="18.75" spans="2:8">
+    <row r="66" customFormat="1" ht="20.25" spans="2:9">
       <c r="B66" s="7">
         <v>9</v>
       </c>
@@ -2578,24 +2630,58 @@
         <f t="shared" si="8"/>
         <v>583800</v>
       </c>
-    </row>
-    <row r="67" ht="18.75" spans="2:8">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="I66" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" ht="20.25" spans="2:9">
+      <c r="B67" s="7">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7">
+        <v>3207</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3360</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="F67" s="7">
+        <v>4200</v>
+      </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="7">
+        <f t="shared" si="8"/>
+        <v>642600</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" ht="18.75" spans="2:8">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="B68" s="7">
+        <v>11</v>
+      </c>
+      <c r="C68" s="7">
+        <v>3360</v>
+      </c>
+      <c r="D68" s="7">
+        <v>3520</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="F68" s="7">
+        <v>4100</v>
+      </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="7">
+        <f t="shared" si="8"/>
+        <v>656000</v>
+      </c>
     </row>
     <row r="69" ht="18.75" spans="2:8">
       <c r="B69" s="7"/>
@@ -3153,7 +3239,7 @@
         <v>2550</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" ref="E92:E100" si="12">D92-C92</f>
+        <f t="shared" ref="E92:E102" si="12">D92-C92</f>
         <v>110</v>
       </c>
       <c r="F92" s="7">
@@ -3161,7 +3247,7 @@
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7">
-        <f t="shared" ref="H92:H100" si="13">((D92-C92)*F92)+G92</f>
+        <f t="shared" ref="H92:H102" si="13">((D92-C92)*F92)+G92</f>
         <v>418000</v>
       </c>
       <c r="I92" s="9" t="s">
@@ -3353,7 +3439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" customFormat="1" ht="18.75" spans="2:8">
+    <row r="100" customFormat="1" ht="20.25" spans="2:9">
       <c r="B100" s="7">
         <v>9</v>
       </c>
@@ -3374,6 +3460,58 @@
       <c r="H100" s="7">
         <f t="shared" si="13"/>
         <v>579600</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" ht="20.25" spans="2:9">
+      <c r="B101" s="7">
+        <v>10</v>
+      </c>
+      <c r="C101" s="7">
+        <v>3589</v>
+      </c>
+      <c r="D101" s="7">
+        <v>3723</v>
+      </c>
+      <c r="E101" s="7">
+        <f t="shared" si="12"/>
+        <v>134</v>
+      </c>
+      <c r="F101" s="7">
+        <v>4200</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7">
+        <f t="shared" si="13"/>
+        <v>562800</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" ht="18.75" spans="2:8">
+      <c r="B102" s="7">
+        <v>11</v>
+      </c>
+      <c r="C102" s="7">
+        <v>3723</v>
+      </c>
+      <c r="D102" s="7">
+        <v>3868</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="F102" s="7">
+        <v>4100</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7">
+        <f t="shared" si="13"/>
+        <v>594500</v>
       </c>
     </row>
   </sheetData>

--- a/tien_dien.xlsx
+++ b/tien_dien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="19">
   <si>
     <t>THÔNG TIN TIỀN ĐIỆN HÀNG THÁNG</t>
   </si>
@@ -1102,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD102"/>
+  <dimension ref="A1:XFD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1686,7 +1686,7 @@
         <v>2610</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" ref="E23:E33" si="3">D23-C23</f>
+        <f t="shared" ref="E23:E34" si="3">D23-C23</f>
         <v>159</v>
       </c>
       <c r="F23" s="7">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H33" si="4">((D23-C23)*F23)+G23</f>
+        <f t="shared" ref="H23:H34" si="4">((D23-C23)*F23)+G23</f>
         <v>604200</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -1938,7 +1938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" ht="18.75" spans="2:8">
+    <row r="33" ht="20.25" spans="2:9">
       <c r="B33" s="7">
         <v>11</v>
       </c>
@@ -1959,6 +1959,32 @@
       <c r="H33" s="7">
         <f t="shared" si="4"/>
         <v>586300</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" spans="2:8">
+      <c r="B34" s="7">
+        <v>12</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4368</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4549</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3500</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7">
+        <f t="shared" si="4"/>
+        <v>633500</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:15">
@@ -2408,7 +2434,7 @@
         <v>1912</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" ref="E58:E68" si="7">D58-C58</f>
+        <f t="shared" ref="E58:E69" si="7">D58-C58</f>
         <v>145</v>
       </c>
       <c r="F58" s="7">
@@ -2416,7 +2442,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7">
-        <f t="shared" ref="H58:H68" si="8">((D58-C58)*F58)+G58</f>
+        <f t="shared" ref="H58:H69" si="8">((D58-C58)*F58)+G58</f>
         <v>551000</v>
       </c>
       <c r="I58" s="9" t="s">
@@ -2660,7 +2686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" ht="18.75" spans="2:8">
+    <row r="68" ht="20.25" spans="2:9">
       <c r="B68" s="7">
         <v>11</v>
       </c>
@@ -2682,15 +2708,32 @@
         <f t="shared" si="8"/>
         <v>656000</v>
       </c>
+      <c r="I68" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="69" ht="18.75" spans="2:8">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="B69" s="7">
+        <v>12</v>
+      </c>
+      <c r="C69" s="7">
+        <v>3520</v>
+      </c>
+      <c r="D69" s="7">
+        <v>3705</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+      <c r="F69" s="7">
+        <v>3500</v>
+      </c>
       <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+      <c r="H69" s="7">
+        <f t="shared" si="8"/>
+        <v>647500</v>
+      </c>
     </row>
     <row r="70" ht="18.75" spans="2:8">
       <c r="B70" s="7"/>
@@ -3239,7 +3282,7 @@
         <v>2550</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" ref="E92:E102" si="12">D92-C92</f>
+        <f t="shared" ref="E92:E103" si="12">D92-C92</f>
         <v>110</v>
       </c>
       <c r="F92" s="7">
@@ -3247,7 +3290,7 @@
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7">
-        <f t="shared" ref="H92:H102" si="13">((D92-C92)*F92)+G92</f>
+        <f t="shared" ref="H92:H103" si="13">((D92-C92)*F92)+G92</f>
         <v>418000</v>
       </c>
       <c r="I92" s="9" t="s">
@@ -3491,7 +3534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" ht="18.75" spans="2:8">
+    <row r="102" ht="20.25" spans="2:9">
       <c r="B102" s="7">
         <v>11</v>
       </c>
@@ -3512,6 +3555,32 @@
       <c r="H102" s="7">
         <f t="shared" si="13"/>
         <v>594500</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" ht="18.75" spans="2:8">
+      <c r="B103" s="7">
+        <v>12</v>
+      </c>
+      <c r="C103" s="7">
+        <v>3868</v>
+      </c>
+      <c r="D103" s="7">
+        <v>4123</v>
+      </c>
+      <c r="E103" s="7">
+        <f t="shared" si="12"/>
+        <v>255</v>
+      </c>
+      <c r="F103" s="7">
+        <v>3500</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7">
+        <f t="shared" si="13"/>
+        <v>892500</v>
       </c>
     </row>
   </sheetData>

--- a/tien_dien.xlsx
+++ b/tien_dien.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="1" r:id="rId1"/>
+    <sheet name="2026" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
   <si>
     <t>THÔNG TIN TIỀN ĐIỆN HÀNG THÁNG</t>
   </si>
@@ -74,16 +75,19 @@
     <t>A. Hoàng Anh</t>
   </si>
   <si>
+    <t>Nguyễn Văn Gần</t>
+  </si>
+  <si>
     <t>NHÀ SỐ 2</t>
   </si>
   <si>
-    <t>Nguyễn Văn Gần</t>
+    <t>ANH VŨ</t>
   </si>
   <si>
     <t>NHÀ SỐ 3</t>
   </si>
   <si>
-    <t>ANH VŨ</t>
+    <t>Anh Vũ</t>
   </si>
 </sst>
 </file>
@@ -100,13 +104,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -146,6 +143,13 @@
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -301,12 +305,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,28 +765,28 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1102,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD103"/>
+  <dimension ref="A1:XFD115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1121,2464 +1125,2582 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" ht="21" spans="1:15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" ht="18.75" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:9">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2023</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>89</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>467</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E20" si="0">D4-C4</f>
         <v>378</v>
       </c>
-      <c r="F4" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G4" s="5">
         <v>70000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H6" si="1">((D4-C4)*F4)+G4</f>
         <v>1506400</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
         <v>11</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>467</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>907</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="F5" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G5" s="5">
         <v>70000</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>1742000</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="20.25" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>907</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>1129</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="F6" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G6" s="5">
         <v>60000</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <f t="shared" si="1"/>
         <v>903600</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>2024</v>
       </c>
     </row>
     <row r="9" ht="20.25" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>90</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>269</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="F9" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G9" s="5">
         <v>60000</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f t="shared" ref="H9:H20" si="2">((D9-C9)*F9)+G9</f>
         <v>740200</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="20.25" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>269</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>472</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="F10" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G10" s="5">
         <v>60000</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>831400</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="20.25" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>472</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>709</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="F11" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>900600</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" ht="20.25" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>709</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>971</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>262</v>
       </c>
-      <c r="F12" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>995600</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" ht="20.25" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>971</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>1208</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="F13" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>900600</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" ht="20.25" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
         <v>6</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>1208</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>1386</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="F14" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>676400</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="20.25" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5">
         <v>7</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>1386</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>1549</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="F15" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>619400</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="20.25" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5">
         <v>8</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>1549</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>1752</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="F16" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <f t="shared" si="2"/>
         <v>771400</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="20.25" spans="1:9">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5">
         <v>9</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>1752</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>1917</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="F17" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>627000</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" ht="20.25" spans="1:9">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5">
         <v>10</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>1917</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>2087</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="F18" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G18" s="5">
         <v>0</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <f t="shared" si="2"/>
         <v>646000</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" ht="20.25" spans="2:9">
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>11</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>2087</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>2307</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="F19" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>836000</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>12</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>2307</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>2451</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="F20" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G20" s="5">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>547200</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="I20" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" s="7" customFormat="1" ht="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:10">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>2025</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>1</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>2451</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>2610</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <f t="shared" ref="E23:E34" si="3">D23-C23</f>
         <v>159</v>
       </c>
-      <c r="F23" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="F23" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
         <f t="shared" ref="H23:H34" si="4">((D23-C23)*F23)+G23</f>
         <v>604200</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5">
         <v>2</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>2610</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>2730</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F24" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
+      <c r="F24" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
         <f t="shared" si="4"/>
         <v>456000</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5">
         <v>3</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>2730</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>2888</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="F25" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
+      <c r="F25" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
         <f t="shared" si="4"/>
         <v>600400</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5">
         <v>4</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>2888</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>3085</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="F26" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7">
+      <c r="F26" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
         <f t="shared" si="4"/>
         <v>748600</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" ht="20.25" spans="2:9">
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>5</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>3085</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>3301</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="F27" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7">
+      <c r="F27" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
         <f t="shared" si="4"/>
         <v>820800</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" ht="20.25" spans="2:9">
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>6</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>3301</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>3552</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="F28" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="F28" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5">
         <f t="shared" si="4"/>
         <v>953800</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" ht="20.25" spans="2:9">
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>7</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>3552</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>3755</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>4500</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
         <f t="shared" si="4"/>
         <v>913500</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" ht="20.25" spans="2:9">
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>8</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>3755</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>3905</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>4700</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5">
         <f t="shared" si="4"/>
         <v>705000</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>9</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>3905</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>4068</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <v>4200</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5">
         <f t="shared" si="4"/>
         <v>684600</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="2:9">
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>10</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>4068</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>4225</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>4200</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
         <f t="shared" si="4"/>
         <v>659400</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" ht="20.25" spans="2:9">
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>11</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>4225</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>4368</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="5">
         <v>4100</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5">
         <f t="shared" si="4"/>
         <v>586300</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" ht="18.75" spans="2:8">
-      <c r="B34" s="7">
+      <c r="I33" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="20.25" spans="2:9">
+      <c r="B34" s="5">
         <v>12</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>4368</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>4549</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="5">
         <v>3500</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
         <f t="shared" si="4"/>
         <v>633500</v>
       </c>
-    </row>
-    <row r="39" ht="21" spans="1:15">
+      <c r="I34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" s="7" customFormat="1" ht="21" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" spans="1:10">
+      <c r="A37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A38" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4549</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4683</v>
+      </c>
+      <c r="E38" s="5">
+        <f>D38-C38</f>
+        <v>134</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5">
+        <f>((D38-C38)*F38)+G38</f>
+        <v>509200</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="20.25" spans="1:9">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" ht="21" spans="1:15">
-      <c r="A40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" ht="18.75" spans="1:10">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" ht="18.75" spans="1:1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" ht="18.75" spans="1:1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" ht="18.75" spans="1:1">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" ht="18.75" spans="1:1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="51" ht="21" spans="2:15">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" ht="21" spans="2:15">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" ht="18.75" spans="2:10">
+      <c r="B53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J53" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" ht="20.25" spans="1:9">
-      <c r="A42" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B42" s="7">
+    <row r="54" ht="20.25" spans="2:9">
+      <c r="B54" s="5">
         <v>10</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C54" s="5">
         <v>157</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D54" s="5">
         <v>237</v>
       </c>
-      <c r="E42" s="7">
-        <f t="shared" ref="E42:E55" si="5">D42-C42</f>
+      <c r="E54" s="5">
+        <f t="shared" ref="E54:E67" si="5">D54-C54</f>
         <v>80</v>
       </c>
-      <c r="F42" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="F54" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G54" s="5">
         <v>60000</v>
       </c>
-      <c r="H42" s="7">
-        <f t="shared" ref="H42:H55" si="6">((D42-C42)*F42)+G42</f>
+      <c r="H54" s="5">
+        <f t="shared" ref="H54:H67" si="6">((D54-C54)*F54)+G54</f>
         <v>364000</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" ht="20.25" spans="1:9">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7">
+      <c r="I54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" ht="21" spans="1:9">
+      <c r="A55" s="2"/>
+      <c r="B55" s="5">
         <v>11</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C55" s="5">
         <v>237</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D55" s="5">
         <v>323</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E55" s="5">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="F43" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G43" s="7">
+      <c r="F55" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G55" s="5">
         <v>60000</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H55" s="5">
         <f t="shared" si="6"/>
         <v>386800</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="6">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="47" ht="20.25" spans="1:9">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7">
+      <c r="I55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" ht="21" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="18.75" spans="1:1">
+      <c r="A57" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" ht="20.25" spans="1:9">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5">
         <v>4</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C59" s="5">
         <v>345</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D59" s="5">
         <v>469</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E59" s="5">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="F47" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G47" s="7">
+      <c r="F59" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G59" s="5">
         <v>0</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H59" s="5">
         <f t="shared" si="6"/>
         <v>471200</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" ht="20.25" spans="1:9">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7">
+      <c r="I59" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" ht="20.25" spans="1:9">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5">
         <v>5</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C60" s="5">
         <v>469</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D60" s="5">
         <v>679</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E60" s="5">
         <f t="shared" si="5"/>
         <v>210</v>
       </c>
-      <c r="F48" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="F60" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G60" s="5">
         <v>0</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H60" s="5">
         <f t="shared" si="6"/>
         <v>798000</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" ht="20.25" spans="1:9">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7">
+      <c r="I60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" ht="20.25" spans="1:9">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5">
         <v>6</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C61" s="5">
         <v>679</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D61" s="5">
         <v>892</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E61" s="5">
         <f t="shared" si="5"/>
         <v>213</v>
       </c>
-      <c r="F49" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="F61" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G61" s="5">
         <v>0</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H61" s="5">
         <f t="shared" si="6"/>
         <v>809400</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" ht="20.25" spans="2:9">
-      <c r="B50" s="7">
+      <c r="I61" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" ht="20.25" spans="1:9">
+      <c r="A62" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B62" s="5">
         <v>7</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C62" s="5">
         <v>892</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D62" s="5">
         <v>1041</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E62" s="5">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
-      <c r="F50" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="F62" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G62" s="5">
         <v>0</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H62" s="5">
         <f t="shared" si="6"/>
         <v>566200</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" ht="20.25" spans="2:9">
-      <c r="B51" s="7">
+      <c r="I62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" ht="20.25" spans="1:9">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5">
         <v>8</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C63" s="5">
         <v>1041</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D63" s="5">
         <v>1205</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E63" s="5">
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="F51" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G51" s="7">
+      <c r="F63" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G63" s="5">
         <v>0</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H63" s="5">
         <f t="shared" si="6"/>
         <v>623200</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" ht="20.25" spans="2:9">
-      <c r="B52" s="7">
+      <c r="I63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" ht="20.25" spans="1:9">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5">
         <v>9</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C64" s="5">
         <v>1205</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D64" s="5">
         <v>1331</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E64" s="5">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="F52" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G52" s="7">
+      <c r="F64" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G64" s="5">
         <v>0</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H64" s="5">
         <f t="shared" si="6"/>
         <v>478800</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B53" s="7">
+      <c r="I64" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5">
         <v>10</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C65" s="5">
         <v>1331</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D65" s="5">
         <v>1491</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E65" s="5">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="F53" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G53" s="7">
+      <c r="F65" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G65" s="5">
         <v>0</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H65" s="5">
         <f t="shared" si="6"/>
         <v>608000</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" ht="20.25" spans="2:9">
-      <c r="B54" s="7">
+      <c r="I65" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" ht="20.25" spans="2:9">
+      <c r="B66" s="5">
         <v>11</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C66" s="5">
         <v>1491</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D66" s="5">
         <v>1647</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E66" s="5">
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="F54" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G54" s="7">
+      <c r="F66" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G66" s="5">
         <v>0</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H66" s="5">
         <f t="shared" si="6"/>
         <v>592800</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B55" s="7">
+      <c r="I66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B67" s="5">
         <v>12</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C67" s="5">
         <v>1647</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D67" s="5">
         <v>1767</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E67" s="5">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="F55" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G55" s="7">
+      <c r="F67" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G67" s="5">
         <v>0</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H67" s="5">
         <f t="shared" si="6"/>
         <v>456000</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="21" spans="5:5">
-      <c r="E56" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" ht="18.75" spans="1:10">
-      <c r="A57" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="I67" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" s="8" customFormat="1" ht="21" spans="1:5">
+      <c r="A68"/>
+      <c r="E68" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" ht="18.75" spans="2:10">
+      <c r="B69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C69" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G69" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J69" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A58" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B58" s="7">
+    <row r="70" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B70" s="5">
         <v>1</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C70" s="5">
         <v>1767</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D70" s="5">
         <v>1912</v>
       </c>
-      <c r="E58" s="7">
-        <f t="shared" ref="E58:E69" si="7">D58-C58</f>
+      <c r="E70" s="5">
+        <f t="shared" ref="E70:E81" si="7">D70-C70</f>
         <v>145</v>
       </c>
-      <c r="F58" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7">
-        <f t="shared" ref="H58:H69" si="8">((D58-C58)*F58)+G58</f>
+      <c r="F70" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5">
+        <f t="shared" ref="H70:H81" si="8">((D70-C70)*F70)+G70</f>
         <v>551000</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7">
+      <c r="I70" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B71" s="5">
         <v>2</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C71" s="5">
         <v>1912</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D71" s="5">
         <v>1997</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E71" s="5">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="F59" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7">
+      <c r="F71" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5">
         <f t="shared" si="8"/>
         <v>323000</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7">
+      <c r="I71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A72" s="8"/>
+      <c r="B72" s="5">
         <v>3</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C72" s="5">
         <v>1997</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D72" s="5">
         <v>2160</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E72" s="5">
         <f t="shared" si="7"/>
         <v>163</v>
       </c>
-      <c r="F60" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7">
+      <c r="F72" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5">
         <f t="shared" si="8"/>
         <v>619400</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7">
+      <c r="I72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="5">
         <v>4</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C73" s="5">
         <v>2160</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D73" s="5">
         <v>2331</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E73" s="5">
         <f t="shared" si="7"/>
         <v>171</v>
       </c>
-      <c r="F61" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7">
+      <c r="F73" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5">
         <f t="shared" si="8"/>
         <v>649800</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" ht="20.25" spans="2:9">
-      <c r="B62" s="7">
+      <c r="I73" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" ht="20.25" spans="1:9">
+      <c r="A74" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B74" s="5">
         <v>5</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C74" s="5">
         <v>2331</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D74" s="5">
         <v>2546</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E74" s="5">
         <f t="shared" si="7"/>
         <v>215</v>
       </c>
-      <c r="F62" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7">
+      <c r="F74" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5">
         <f t="shared" si="8"/>
         <v>817000</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" ht="20.25" spans="2:9">
-      <c r="B63" s="7">
+      <c r="I74" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" ht="20.25" spans="1:9">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5">
         <v>6</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C75" s="5">
         <v>2546</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D75" s="5">
         <v>2759</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E75" s="5">
         <f t="shared" si="7"/>
         <v>213</v>
       </c>
-      <c r="F63" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7">
+      <c r="F75" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5">
         <f t="shared" si="8"/>
         <v>809400</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" ht="20.25" spans="2:9">
-      <c r="B64" s="7">
+      <c r="I75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" ht="20.25" spans="1:9">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5">
         <v>7</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C76" s="5">
         <v>2759</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D76" s="5">
         <v>2906</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E76" s="5">
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F76" s="5">
         <v>4500</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7">
+      <c r="G76" s="5"/>
+      <c r="H76" s="5">
         <f t="shared" si="8"/>
         <v>661500</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" ht="20.25" spans="2:9">
-      <c r="B65" s="7">
+      <c r="I76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" ht="20.25" spans="1:9">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5">
         <v>8</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C77" s="5">
         <v>2906</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D77" s="5">
         <v>3068</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E77" s="5">
         <f t="shared" si="7"/>
         <v>162</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F77" s="5">
         <v>4700</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7">
+      <c r="G77" s="5"/>
+      <c r="H77" s="5">
         <f t="shared" si="8"/>
         <v>761400</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B66" s="7">
+      <c r="I77" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B78" s="5">
         <v>9</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C78" s="5">
         <v>3068</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D78" s="5">
         <v>3207</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E78" s="5">
         <f t="shared" si="7"/>
         <v>139</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F78" s="5">
         <v>4200</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7">
+      <c r="G78" s="5"/>
+      <c r="H78" s="5">
         <f t="shared" si="8"/>
         <v>583800</v>
       </c>
-      <c r="I66" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" ht="20.25" spans="2:9">
-      <c r="B67" s="7">
+      <c r="I78" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" ht="20.25" spans="2:9">
+      <c r="B79" s="5">
         <v>10</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C79" s="5">
         <v>3207</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D79" s="5">
         <v>3360</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E79" s="5">
         <f t="shared" si="7"/>
         <v>153</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F79" s="5">
         <v>4200</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7">
+      <c r="G79" s="5"/>
+      <c r="H79" s="5">
         <f t="shared" si="8"/>
         <v>642600</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" ht="20.25" spans="2:9">
-      <c r="B68" s="7">
+      <c r="I79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" ht="20.25" spans="2:9">
+      <c r="B80" s="5">
         <v>11</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C80" s="5">
         <v>3360</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D80" s="5">
         <v>3520</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E80" s="5">
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F80" s="5">
         <v>4100</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7">
+      <c r="G80" s="5"/>
+      <c r="H80" s="5">
         <f t="shared" si="8"/>
         <v>656000</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" ht="18.75" spans="2:8">
-      <c r="B69" s="7">
+      <c r="I80" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" ht="18.75" spans="2:8">
+      <c r="B81" s="5">
         <v>12</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C81" s="5">
         <v>3520</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D81" s="5">
         <v>3705</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E81" s="5">
         <f t="shared" si="7"/>
         <v>185</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F81" s="5">
         <v>3500</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7">
+      <c r="G81" s="5"/>
+      <c r="H81" s="5">
         <f t="shared" si="8"/>
         <v>647500</v>
       </c>
     </row>
-    <row r="70" ht="18.75" spans="2:8">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="72" ht="21" spans="1:15">
-      <c r="A72" s="4" t="s">
+    <row r="82" ht="18.75" spans="2:8">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="84" ht="21" spans="2:15">
+      <c r="B84" s="2"/>
+      <c r="C84" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-    </row>
-    <row r="73" ht="18.75" spans="1:10">
-      <c r="A73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="6" t="s">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" ht="18.75" spans="2:10">
+      <c r="B85" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D85" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G85" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="J85" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" ht="20.25" spans="1:9">
-      <c r="A74" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B74" s="7">
+    <row r="86" ht="20.25" spans="2:9">
+      <c r="B86" s="5">
         <v>10</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C86" s="5">
         <v>371</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D86" s="5">
         <v>464</v>
       </c>
-      <c r="E74" s="7">
-        <f t="shared" ref="E74:E89" si="9">D74-C74</f>
+      <c r="E86" s="5">
+        <f t="shared" ref="E86:E101" si="9">D86-C86</f>
         <v>93</v>
       </c>
-      <c r="F74" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G74" s="7">
+      <c r="F86" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G86" s="5">
         <v>60000</v>
       </c>
-      <c r="H74" s="7">
-        <f t="shared" ref="H74:H76" si="10">((D74-C74)*F74)+G74</f>
+      <c r="H86" s="5">
+        <f t="shared" ref="H86:H88" si="10">((D86-C86)*F86)+G86</f>
         <v>413400</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" ht="20.25" spans="1:9">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7">
+      <c r="I86" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" ht="20.25" spans="2:9">
+      <c r="B87" s="5">
         <v>11</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C87" s="5">
         <v>464</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D87" s="5">
         <v>627</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E87" s="5">
         <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="F75" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G75" s="7">
+      <c r="F87" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G87" s="5">
         <v>60000</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H87" s="5">
         <f t="shared" si="10"/>
         <v>679400</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" ht="20.25" spans="1:9">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7">
+      <c r="I87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" ht="21" spans="1:9">
+      <c r="A88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="5">
         <v>12</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C88" s="5">
         <v>627</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D88" s="5">
         <v>774</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E88" s="5">
         <f t="shared" si="9"/>
         <v>147</v>
       </c>
-      <c r="F76" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G76" s="7">
+      <c r="F88" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G88" s="5">
         <v>60000</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H88" s="5">
         <f t="shared" si="10"/>
         <v>618600</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="6"/>
-    </row>
-    <row r="78" ht="20.25" spans="1:9">
-      <c r="A78" s="6">
-        <v>2024</v>
-      </c>
-      <c r="B78" s="7">
+      <c r="I88" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" ht="18.75" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" ht="20.25" spans="1:9">
+      <c r="A90" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B90" s="5">
         <v>1</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C90" s="5">
         <v>774</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D90" s="5">
         <v>927</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E90" s="5">
         <f t="shared" si="9"/>
         <v>153</v>
       </c>
-      <c r="F78" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G78" s="7">
+      <c r="F90" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G90" s="5">
         <v>60000</v>
       </c>
-      <c r="H78" s="7">
-        <f t="shared" ref="H78:H89" si="11">((D78-C78)*F78)+G78</f>
+      <c r="H90" s="5">
+        <f t="shared" ref="H90:H101" si="11">((D90-C90)*F90)+G90</f>
         <v>641400</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" ht="20.25" spans="1:9">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7">
+      <c r="I90" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" ht="20.25" spans="1:9">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5">
         <v>2</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C91" s="5">
         <v>927</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D91" s="5">
         <v>1110</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E91" s="5">
         <f t="shared" si="9"/>
         <v>183</v>
       </c>
-      <c r="F79" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G79" s="7">
+      <c r="F91" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G91" s="5">
         <v>60000</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H91" s="5">
         <f t="shared" si="11"/>
         <v>755400</v>
       </c>
-      <c r="I79" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" ht="20.25" spans="1:9">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7">
+      <c r="I91" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" ht="20.25" spans="1:9">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5">
         <v>3</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C92" s="5">
         <v>1110</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D92" s="5">
         <v>1267</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E92" s="5">
         <f t="shared" si="9"/>
         <v>157</v>
       </c>
-      <c r="F80" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G80" s="7">
+      <c r="F92" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G92" s="5">
         <v>0</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H92" s="5">
         <f t="shared" si="11"/>
         <v>596600</v>
       </c>
-      <c r="I80" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" ht="20.25" spans="1:9">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7">
+      <c r="I92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" ht="20.25" spans="1:9">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5">
         <v>4</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C93" s="5">
         <v>1267</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D93" s="5">
         <v>1436</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E93" s="5">
         <f t="shared" si="9"/>
         <v>169</v>
       </c>
-      <c r="F81" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G81" s="7">
+      <c r="F93" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G93" s="5">
         <v>0</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H93" s="5">
         <f t="shared" si="11"/>
         <v>642200</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" ht="20.25" spans="2:9">
-      <c r="B82" s="7">
+      <c r="I93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" ht="20.25" spans="1:9">
+      <c r="A94" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B94" s="5">
         <v>5</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C94" s="5">
         <v>1436</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D94" s="5">
         <v>1623</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E94" s="5">
         <f t="shared" si="9"/>
         <v>187</v>
       </c>
-      <c r="F82" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G82" s="7">
+      <c r="F94" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G94" s="5">
         <v>0</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H94" s="5">
         <f t="shared" si="11"/>
         <v>710600</v>
       </c>
-      <c r="I82" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" ht="20.25" spans="2:9">
-      <c r="B83" s="7">
+      <c r="I94" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" ht="20.25" spans="1:9">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5">
         <v>6</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C95" s="5">
         <v>1623</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D95" s="5">
         <v>1763</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E95" s="5">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="F83" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G83" s="7">
+      <c r="F95" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G95" s="5">
         <v>0</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H95" s="5">
         <f t="shared" si="11"/>
         <v>532000</v>
       </c>
-      <c r="I83" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" ht="20.25" spans="2:9">
-      <c r="B84" s="7">
+      <c r="I95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" ht="20.25" spans="1:9">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5">
         <v>7</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C96" s="5">
         <v>1763</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D96" s="5">
         <v>1877</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E96" s="5">
         <f t="shared" si="9"/>
         <v>114</v>
       </c>
-      <c r="F84" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G84" s="7">
+      <c r="F96" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G96" s="5">
         <v>0</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H96" s="5">
         <f t="shared" si="11"/>
         <v>433200</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" ht="20.25" spans="2:9">
-      <c r="B85" s="7">
+      <c r="I96" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" ht="20.25" spans="1:9">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5">
         <v>8</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C97" s="5">
         <v>1877</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D97" s="5">
         <v>2000</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E97" s="5">
         <f t="shared" si="9"/>
         <v>123</v>
       </c>
-      <c r="F85" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G85" s="7">
+      <c r="F97" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G97" s="5">
         <v>0</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H97" s="5">
         <f t="shared" si="11"/>
         <v>467400</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" ht="20.25" spans="2:9">
-      <c r="B86" s="7">
+      <c r="I97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" ht="20.25" spans="2:9">
+      <c r="B98" s="5">
         <v>9</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C98" s="5">
         <v>2000</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D98" s="5">
         <v>2104</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E98" s="5">
         <f t="shared" si="9"/>
         <v>104</v>
       </c>
-      <c r="F86" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G86" s="7">
+      <c r="F98" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G98" s="5">
         <v>0</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H98" s="5">
         <f t="shared" si="11"/>
         <v>395200</v>
       </c>
-      <c r="I86" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B87" s="7">
+      <c r="I98" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B99" s="5">
         <v>10</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C99" s="5">
         <v>2104</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D99" s="5">
         <v>2230</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E99" s="5">
         <f t="shared" si="9"/>
         <v>126</v>
       </c>
-      <c r="F87" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G87" s="7">
+      <c r="F99" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G99" s="5">
         <v>0</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H99" s="5">
         <f t="shared" si="11"/>
         <v>478800</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" ht="20.25" spans="2:9">
-      <c r="B88" s="7">
+      <c r="I99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" ht="20.25" spans="2:9">
+      <c r="B100" s="5">
         <v>11</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C100" s="5">
         <v>2230</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D100" s="5">
         <v>2339</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E100" s="5">
         <f t="shared" si="9"/>
         <v>109</v>
       </c>
-      <c r="F88" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G88" s="7">
+      <c r="F100" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G100" s="5">
         <v>0</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H100" s="5">
         <f t="shared" si="11"/>
         <v>414200</v>
       </c>
-      <c r="I88" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B89" s="7">
+      <c r="I100" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B101" s="5">
         <v>12</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C101" s="5">
         <v>2339</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D101" s="5">
         <v>2440</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E101" s="5">
         <f t="shared" si="9"/>
         <v>101</v>
       </c>
-      <c r="F89" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G89" s="7">
+      <c r="F101" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G101" s="5">
         <v>0</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H101" s="5">
         <f t="shared" si="11"/>
         <v>383800</v>
       </c>
-      <c r="I89" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="21" spans="5:5">
-      <c r="E90" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" ht="18.75" spans="1:10">
-      <c r="A91" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="6" t="s">
+      <c r="I101" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" s="8" customFormat="1" ht="21" spans="1:5">
+      <c r="A102"/>
+      <c r="E102" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" ht="18.75" spans="2:10">
+      <c r="B103" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C103" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G103" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H103" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J91" s="6" t="s">
+      <c r="J103" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A92" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B92" s="7">
+    <row r="104" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B104" s="5">
         <v>1</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C104" s="5">
         <v>2440</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D104" s="5">
         <v>2550</v>
       </c>
-      <c r="E92" s="7">
-        <f t="shared" ref="E92:E103" si="12">D92-C92</f>
+      <c r="E104" s="5">
+        <f t="shared" ref="E104:E115" si="12">D104-C104</f>
         <v>110</v>
       </c>
-      <c r="F92" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7">
-        <f t="shared" ref="H92:H103" si="13">((D92-C92)*F92)+G92</f>
+      <c r="F104" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5">
+        <f t="shared" ref="H104:H115" si="13">((D104-C104)*F104)+G104</f>
         <v>418000</v>
       </c>
-      <c r="I92" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7">
+      <c r="I104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B105" s="5">
         <v>2</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C105" s="5">
         <v>2550</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D105" s="5">
         <v>2647</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E105" s="5">
         <f t="shared" si="12"/>
         <v>97</v>
       </c>
-      <c r="F93" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7">
+      <c r="F105" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5">
         <f t="shared" si="13"/>
         <v>368600</v>
       </c>
-      <c r="I93" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7">
+      <c r="I105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A106" s="8"/>
+      <c r="B106" s="5">
         <v>3</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C106" s="5">
         <v>2647</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D106" s="5">
         <v>2747</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E106" s="5">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="F94" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7">
+      <c r="F106" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5">
         <f t="shared" si="13"/>
         <v>380000</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7">
+      <c r="I106" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="5">
         <v>4</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C107" s="5">
         <v>2747</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D107" s="5">
         <v>2882</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E107" s="5">
         <f t="shared" si="12"/>
         <v>135</v>
       </c>
-      <c r="F95" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7">
+      <c r="F107" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5">
         <f t="shared" si="13"/>
         <v>513000</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" ht="20.25" spans="2:9">
-      <c r="B96" s="7">
+      <c r="I107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" ht="20.25" spans="1:9">
+      <c r="A108" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B108" s="5">
         <v>5</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C108" s="5">
         <v>2882</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D108" s="5">
         <v>3022</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E108" s="5">
         <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="F96" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7">
+      <c r="F108" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5">
         <f t="shared" si="13"/>
         <v>532000</v>
       </c>
-      <c r="I96" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" ht="20.25" spans="2:9">
-      <c r="B97" s="7">
+      <c r="I108" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" ht="20.25" spans="1:9">
+      <c r="A109" s="4"/>
+      <c r="B109" s="5">
         <v>6</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C109" s="5">
         <v>3022</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D109" s="5">
         <v>3158</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E109" s="5">
         <f t="shared" si="12"/>
         <v>136</v>
       </c>
-      <c r="F97" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7">
+      <c r="F109" s="5">
+        <v>3800</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5">
         <f t="shared" si="13"/>
         <v>516800</v>
       </c>
-      <c r="I97" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" ht="20.25" spans="2:9">
-      <c r="B98" s="7">
+      <c r="I109" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" ht="20.25" spans="1:9">
+      <c r="A110" s="4"/>
+      <c r="B110" s="5">
         <v>7</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C110" s="5">
         <v>3158</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D110" s="5">
         <v>3285</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E110" s="5">
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F110" s="5">
         <v>4500</v>
       </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7">
+      <c r="G110" s="5"/>
+      <c r="H110" s="5">
         <f t="shared" si="13"/>
         <v>571500</v>
       </c>
-      <c r="I98" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" ht="20.25" spans="2:9">
-      <c r="B99" s="7">
+      <c r="I110" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" ht="20.25" spans="1:9">
+      <c r="A111" s="4"/>
+      <c r="B111" s="5">
         <v>8</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C111" s="5">
         <v>3285</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D111" s="5">
         <v>3451</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E111" s="5">
         <f t="shared" si="12"/>
         <v>166</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F111" s="5">
         <v>4700</v>
       </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7">
+      <c r="G111" s="5"/>
+      <c r="H111" s="5">
         <f t="shared" si="13"/>
         <v>780200</v>
       </c>
-      <c r="I99" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" ht="20.25" spans="2:9">
-      <c r="B100" s="7">
+      <c r="I111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" ht="20.25" spans="2:9">
+      <c r="B112" s="5">
         <v>9</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C112" s="5">
         <v>3451</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D112" s="5">
         <v>3589</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E112" s="5">
         <f t="shared" si="12"/>
         <v>138</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F112" s="5">
         <v>4200</v>
       </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7">
+      <c r="G112" s="5"/>
+      <c r="H112" s="5">
         <f t="shared" si="13"/>
         <v>579600</v>
       </c>
-      <c r="I100" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" ht="20.25" spans="2:9">
-      <c r="B101" s="7">
+      <c r="I112" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" ht="20.25" spans="2:9">
+      <c r="B113" s="5">
         <v>10</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C113" s="5">
         <v>3589</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D113" s="5">
         <v>3723</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E113" s="5">
         <f t="shared" si="12"/>
         <v>134</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F113" s="5">
         <v>4200</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7">
+      <c r="G113" s="5"/>
+      <c r="H113" s="5">
         <f t="shared" si="13"/>
         <v>562800</v>
       </c>
-      <c r="I101" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" ht="20.25" spans="2:9">
-      <c r="B102" s="7">
+      <c r="I113" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" ht="20.25" spans="2:9">
+      <c r="B114" s="5">
         <v>11</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C114" s="5">
         <v>3723</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D114" s="5">
         <v>3868</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E114" s="5">
         <f t="shared" si="12"/>
         <v>145</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F114" s="5">
         <v>4100</v>
       </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7">
+      <c r="G114" s="5"/>
+      <c r="H114" s="5">
         <f t="shared" si="13"/>
         <v>594500</v>
       </c>
-      <c r="I102" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" ht="18.75" spans="2:8">
-      <c r="B103" s="7">
+      <c r="I114" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" ht="18.75" spans="2:8">
+      <c r="B115" s="5">
         <v>12</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C115" s="5">
         <v>3868</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D115" s="5">
         <v>4123</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E115" s="5">
         <f t="shared" si="12"/>
         <v>255</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F115" s="5">
         <v>3500</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7">
+      <c r="G115" s="5"/>
+      <c r="H115" s="5">
         <f t="shared" si="13"/>
         <v>892500</v>
       </c>
@@ -3589,22 +3711,418 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:O2"/>
     <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:O40"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:O72"/>
+    <mergeCell ref="A36:XFD36"/>
+    <mergeCell ref="C52:O52"/>
+    <mergeCell ref="C84:O84"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
     <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A108:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="15.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="16.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="24.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="14.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="6.85714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" customHeight="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" ht="21" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" ht="18.75" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="20.25" spans="1:9">
+      <c r="A4" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4549</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4683</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4-C4</f>
+        <v>134</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3600</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <f>((D4-C4)*F4)+G4</f>
+        <v>482400</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="17" ht="18.75" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" ht="21" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" ht="18.75" spans="1:10">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A20" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3705</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3859</v>
+      </c>
+      <c r="E20" s="5">
+        <f>D20-C20</f>
+        <v>154</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3600</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <f>((D20-C20)*F20)+G20</f>
+        <v>554400</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:1">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:1">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:1">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:1">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="34" ht="21" spans="1:15">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" ht="18.75" spans="1:10">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A36" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4123</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4306</v>
+      </c>
+      <c r="E36" s="5">
+        <f>D36-C36</f>
+        <v>183</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3600</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5">
+        <f>((D36-C36)*F36)+G36</f>
+        <v>658800</v>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:1">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:1">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:1">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" customFormat="1" spans="1:1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" customFormat="1" spans="1:1">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" customFormat="1" spans="1:1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" customFormat="1" spans="1:1">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" customFormat="1" spans="1:1">
+      <c r="A47" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A36:A47"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>